--- a/Retail/Documents/OSS-BSS/E2E Design.xlsx
+++ b/Retail/Documents/OSS-BSS/E2E Design.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\Retail\Documents\OSS-BSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36E7D75-5837-4BD7-8FB7-FEBFBC61886D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC869427-C446-4D1A-B1A6-FC05F0C2B65F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{4F0E0A7E-CDA5-4DA7-A5B8-94683093D0E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{4F0E0A7E-CDA5-4DA7-A5B8-94683093D0E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="1" r:id="rId1"/>
     <sheet name="Sample Billing" sheetId="3" r:id="rId2"/>
     <sheet name="CRM" sheetId="2" r:id="rId3"/>
     <sheet name="Sample CRM" sheetId="4" r:id="rId4"/>
-    <sheet name="Inventory" sheetId="6" r:id="rId5"/>
-    <sheet name="Sample Inventory" sheetId="5" r:id="rId6"/>
+    <sheet name="Sample CRM 2" sheetId="9" r:id="rId5"/>
+    <sheet name="Inventory" sheetId="6" r:id="rId6"/>
+    <sheet name="Sample Inventory" sheetId="5" r:id="rId7"/>
+    <sheet name="Provisioning" sheetId="7" r:id="rId8"/>
+    <sheet name="Sample Provisioning" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="542">
   <si>
     <t>ContractType</t>
   </si>
@@ -908,9 +911,6 @@
     <t>Stamp Fee</t>
   </si>
   <si>
-    <t>OperationCatalog</t>
-  </si>
-  <si>
     <t>Telephone Activation</t>
   </si>
   <si>
@@ -1094,72 +1094,6 @@
     <t>Fixed: 1500 LBP</t>
   </si>
   <si>
-    <t>Telephone Special Number</t>
-  </si>
-  <si>
-    <t>Mapped To: "Golden Number"</t>
-  </si>
-  <si>
-    <t>Mapped To: "Silver Number"</t>
-  </si>
-  <si>
-    <t>Mapped To: "Bronze Number"</t>
-  </si>
-  <si>
-    <t>Network Services: 
-"CLIP, Call Waiting, Call Forwarding"</t>
-  </si>
-  <si>
-    <t>Network Services: 
-"CLIP, Call Waiting, Call Forwarding,Abbreviate Dialing, hot line, 3-party calling, call barring"</t>
-  </si>
-  <si>
-    <t>Network Services: 
-"CLIR"</t>
-  </si>
-  <si>
-    <t>Network Services: 
-"Call Barring"</t>
-  </si>
-  <si>
-    <t>Network Services: 
-"Abbreviated Dialing"</t>
-  </si>
-  <si>
-    <t>Network Services: 
-"3-Party Calling"</t>
-  </si>
-  <si>
-    <t>Network Services: 
-"Hot Line"</t>
-  </si>
-  <si>
-    <t>Network Services: 
-"Line Hunting (PABX)"</t>
-  </si>
-  <si>
-    <t>Network Services: 
-"Alarm Call"</t>
-  </si>
-  <si>
-    <t>Internet Email</t>
-  </si>
-  <si>
-    <t>Internet Parental Control</t>
-  </si>
-  <si>
-    <t>Telephone Network Services</t>
-  </si>
-  <si>
-    <t>LineSubscriptionServiceCatalog</t>
-  </si>
-  <si>
-    <t>OrderChargeRule</t>
-  </si>
-  <si>
-    <t>OrderType</t>
-  </si>
-  <si>
     <t>ChargeMappingCatalog</t>
   </si>
   <si>
@@ -1226,9 +1160,6 @@
     <t>RecurringChargeTypeID</t>
   </si>
   <si>
-    <t>ItemType</t>
-  </si>
-  <si>
     <t>55000 per 2 MB</t>
   </si>
   <si>
@@ -1337,9 +1268,6 @@
     <t>ResourceID</t>
   </si>
   <si>
-    <t>NodeModelSupportedFeatures</t>
-  </si>
-  <si>
     <t>NodeTypeFeature</t>
   </si>
   <si>
@@ -1376,13 +1304,409 @@
     <t>NodeModelID</t>
   </si>
   <si>
-    <t>NodeTypeFeatureID</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
     <t>ResourceType</t>
+  </si>
+  <si>
+    <t>NetworkElement</t>
+  </si>
+  <si>
+    <t>ProvisionHandler</t>
+  </si>
+  <si>
+    <t>CreatePSTNSubscriber</t>
+  </si>
+  <si>
+    <t>ActivatePSTNSubscriber</t>
+  </si>
+  <si>
+    <t>CreateISDNSubscriber</t>
+  </si>
+  <si>
+    <t>CreateMSNSubscriber</t>
+  </si>
+  <si>
+    <t>DeletePSTNSubscriber</t>
+  </si>
+  <si>
+    <t>DeleteISDNSubscriber</t>
+  </si>
+  <si>
+    <t>DeleteMSNSubscriber</t>
+  </si>
+  <si>
+    <t>AddCLIP</t>
+  </si>
+  <si>
+    <t>DeleteCLIP</t>
+  </si>
+  <si>
+    <t>AddCLIR</t>
+  </si>
+  <si>
+    <t>DeleteCLIR</t>
+  </si>
+  <si>
+    <t>AddCallWaiting</t>
+  </si>
+  <si>
+    <t>DeleteCallWaiting</t>
+  </si>
+  <si>
+    <t>AddCallDivert</t>
+  </si>
+  <si>
+    <t>DeleteCallDivert</t>
+  </si>
+  <si>
+    <t>ProvisionAction</t>
+  </si>
+  <si>
+    <t>ParameterRecordType</t>
+  </si>
+  <si>
+    <t>NEType</t>
+  </si>
+  <si>
+    <t>NETypeProvisionHandler</t>
+  </si>
+  <si>
+    <t>NETypeID</t>
+  </si>
+  <si>
+    <t>ProvisionActionID</t>
+  </si>
+  <si>
+    <t>abstract class</t>
+  </si>
+  <si>
+    <t>ProvisionHandlerTemplate</t>
+  </si>
+  <si>
+    <t>same handler class as NETypeProvisionHandler</t>
+  </si>
+  <si>
+    <t>NodeModelSupportedService</t>
+  </si>
+  <si>
+    <t>api/networkprovisioning/provision</t>
+  </si>
+  <si>
+    <t>api/networkprovisioning/generatecommand</t>
+  </si>
+  <si>
+    <t>Provisioning API</t>
+  </si>
+  <si>
+    <t>Generate Command API</t>
+  </si>
+  <si>
+    <t>Provisioning API Parameter</t>
+  </si>
+  <si>
+    <t>Generate Command API Parameter</t>
+  </si>
+  <si>
+    <t>snb,device</t>
+  </si>
+  <si>
+    <t>snb</t>
+  </si>
+  <si>
+    <t>snb,isdnmainnumber,device</t>
+  </si>
+  <si>
+    <t>{  
+   NetworkElement:XXX,
+   Parameters:
+   {
+     SNB:""
+   }
+}</t>
+  </si>
+  <si>
+    <t>{  
+   NetworkElementType:XXX,
+   Parameters:
+   {
+     SNB:""
+   }
+}</t>
+  </si>
+  <si>
+    <t>GenerateCommandHandler</t>
+  </si>
+  <si>
+    <t>GenCmdParameterRecordType</t>
+  </si>
+  <si>
+    <t>ProvisionParameterRecordType</t>
+  </si>
+  <si>
+    <t>{  
+   NetworkElement:XXX,
+   Parameters:
+   {
+     SNB:"",
+     Device:""
+   }
+}</t>
+  </si>
+  <si>
+    <t>{  
+   NetworkElementType:XXX,
+   Parameters:
+   {
+     SNB:"",
+     Device:""
+   }
+}</t>
+  </si>
+  <si>
+    <t>{  
+   NetworkElement:XXX,
+   Parameters:
+   {
+     SNB:"",
+     ISDNMainNumber:"",
+     Device:""
+   }
+}</t>
+  </si>
+  <si>
+    <t>{  
+   NetworkElementType:XXX,
+   Parameters:
+   {
+     SNB:"",
+     ISDNMainNumber:"",
+     Device:""
+   }
+}</t>
+  </si>
+  <si>
+    <t>TelephoneSpecialNumberCatalog</t>
+  </si>
+  <si>
+    <t>SpecialNumber</t>
+  </si>
+  <si>
+    <t>Internet Email Activation</t>
+  </si>
+  <si>
+    <t>Internet Email Recurring</t>
+  </si>
+  <si>
+    <t>SupplementaryServiceCatalog</t>
+  </si>
+  <si>
+    <t>NodeService</t>
+  </si>
+  <si>
+    <t>NodeServiceID</t>
+  </si>
+  <si>
+    <t>ServiceGroup</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Broadband Internet</t>
+  </si>
+  <si>
+    <t>SupplementaryServiceNetworkMapping</t>
+  </si>
+  <si>
+    <t>SupplementaryService</t>
+  </si>
+  <si>
+    <t>NIMService</t>
+  </si>
+  <si>
+    <t>Call Forwarding</t>
+  </si>
+  <si>
+    <t>AddServiceProvisionAction</t>
+  </si>
+  <si>
+    <t>DeleteServiceProvisionAction</t>
+  </si>
+  <si>
+    <t>AddClip</t>
+  </si>
+  <si>
+    <t>DeleteClip</t>
+  </si>
+  <si>
+    <t>AddCallForwarding</t>
+  </si>
+  <si>
+    <t>DeleteCallForwarding</t>
+  </si>
+  <si>
+    <t>Abbreviate Dialing</t>
+  </si>
+  <si>
+    <t>3-party calling</t>
+  </si>
+  <si>
+    <t>Hot line</t>
+  </si>
+  <si>
+    <t>AddAbbreviateDialing</t>
+  </si>
+  <si>
+    <t>AddHotline</t>
+  </si>
+  <si>
+    <t>Add3partycalling</t>
+  </si>
+  <si>
+    <t>DeleteAbbreviateDialing</t>
+  </si>
+  <si>
+    <t>DeleteAddHotline</t>
+  </si>
+  <si>
+    <t>Delete3partycalling</t>
+  </si>
+  <si>
+    <t>AddAbbreviated Dialing</t>
+  </si>
+  <si>
+    <t>AddCallBarring</t>
+  </si>
+  <si>
+    <t>Add3PartyCalling</t>
+  </si>
+  <si>
+    <t>AddAlarmCall</t>
+  </si>
+  <si>
+    <t>DeleteCallBarring</t>
+  </si>
+  <si>
+    <t>DeleteAlarmCall</t>
+  </si>
+  <si>
+    <t>DeleteAbbreviatedDialing</t>
+  </si>
+  <si>
+    <t>Delete3-PartyCalling</t>
+  </si>
+  <si>
+    <t>DeleteHotLine</t>
+  </si>
+  <si>
+    <t>AddHotLine</t>
+  </si>
+  <si>
+    <t>DeleteLinePABXHunting</t>
+  </si>
+  <si>
+    <t>AddLinePABXHunting</t>
+  </si>
+  <si>
+    <t>SupplementaryServiceGroup</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>SelectedByDefault</t>
+  </si>
+  <si>
+    <t>ContractServiceType</t>
+  </si>
+  <si>
+    <t>SuspensionBillingChargeType</t>
+  </si>
+  <si>
+    <t>SuspensionRecurringBillingChargeType</t>
+  </si>
+  <si>
+    <t>ContractServiceTypeOption</t>
+  </si>
+  <si>
+    <t>HasOptions</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>DefaultOption</t>
+  </si>
+  <si>
+    <t>RestrictToTechnologies</t>
+  </si>
+  <si>
+    <t>Broadband Internet From OGERO</t>
+  </si>
+  <si>
+    <t>Broadband Internet (Wholesale BitStream)</t>
+  </si>
+  <si>
+    <t>Broadband Internet (Wholesale LLU)</t>
+  </si>
+  <si>
+    <t>CanAddMultipleServices</t>
+  </si>
+  <si>
+    <t>IIC Package</t>
+  </si>
+  <si>
+    <t>RestrictToUserTypes</t>
+  </si>
+  <si>
+    <t>NLL Link</t>
+  </si>
+  <si>
+    <t>VPN Leg</t>
+  </si>
+  <si>
+    <t>ContractServiceNetworkMapping</t>
+  </si>
+  <si>
+    <t>ReactivationBillingChargeType</t>
+  </si>
+  <si>
+    <t>DeactivationBillingChargeType</t>
+  </si>
+  <si>
+    <t>AvailableInServiceSelectionStep</t>
+  </si>
+  <si>
+    <t>Special Number</t>
+  </si>
+  <si>
+    <t>NIMNumberCategory</t>
+  </si>
+  <si>
+    <t>Service Code</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>Telephone Core</t>
+  </si>
+  <si>
+    <t>Internet Core</t>
+  </si>
+  <si>
+    <t>Network Services</t>
+  </si>
+  <si>
+    <t>Internet Supplementary Service</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1450,6 +1774,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1766,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2483E329-B3B0-424F-826D-489DA42297BA}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -1945,17 +2272,17 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2036,7 +2363,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2052,7 +2379,7 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2060,12 +2387,12 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -2078,22 +2405,22 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -2101,37 +2428,37 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2141,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D1D1B-A97F-4AD0-B5C8-AD97FA10D80C}">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:J277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256:XFD256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2153,6 +2480,11 @@
     <col min="2" max="2" width="47.21875" customWidth="1"/>
     <col min="3" max="3" width="50.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3090,7 +3422,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" ref="B85:B98" si="2">$A$5</f>
@@ -3102,7 +3434,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="2"/>
@@ -3726,7 +4058,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B138" t="str">
         <f>$A$8</f>
@@ -3745,24 +4077,24 @@
         <v>VPN</v>
       </c>
       <c r="C139" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="4"/>
         <v>VPN</v>
       </c>
       <c r="C140" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="4"/>
@@ -3786,7 +4118,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="4"/>
@@ -3798,7 +4130,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="4"/>
@@ -3808,9 +4140,9 @@
         <v>3712500</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="4"/>
@@ -3820,9 +4152,9 @@
         <v>4583333</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="4"/>
@@ -3832,9 +4164,9 @@
         <v>5729167</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="4"/>
@@ -3844,7 +4176,7 @@
         <v>6558750</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>238</v>
       </c>
@@ -3856,9 +4188,9 @@
         <v>6671042</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="4"/>
@@ -3868,9 +4200,9 @@
         <v>7218750</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="4"/>
@@ -3880,9 +4212,9 @@
         <v>7562500</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="4"/>
@@ -3892,9 +4224,9 @@
         <v>7906250</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="4"/>
@@ -3904,7 +4236,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>239</v>
       </c>
@@ -3916,7 +4248,7 @@
         <v>20526458</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>240</v>
       </c>
@@ -3928,237 +4260,1751 @@
         <v>72187500</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>476</v>
+      </c>
+      <c r="B159" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" t="s">
+        <v>290</v>
+      </c>
+      <c r="D159" t="s">
+        <v>354</v>
+      </c>
+      <c r="E159" t="s">
+        <v>103</v>
+      </c>
+      <c r="F159" t="s">
+        <v>109</v>
+      </c>
+      <c r="G159" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>521</v>
+      </c>
+      <c r="B160" t="s">
+        <v>56</v>
+      </c>
+      <c r="E160" t="s">
+        <v>108</v>
+      </c>
+      <c r="F160" t="s">
+        <v>110</v>
+      </c>
+      <c r="G160" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>522</v>
+      </c>
+      <c r="B161" t="s">
+        <v>56</v>
+      </c>
+      <c r="E161" t="s">
+        <v>108</v>
+      </c>
+      <c r="F161" t="s">
+        <v>110</v>
+      </c>
+      <c r="G161" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>523</v>
+      </c>
+      <c r="B162" t="s">
+        <v>56</v>
+      </c>
+      <c r="E162" t="s">
+        <v>108</v>
+      </c>
+      <c r="F162" t="s">
+        <v>110</v>
+      </c>
+      <c r="G162" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>27</v>
+      </c>
+      <c r="B163" t="s">
+        <v>56</v>
+      </c>
+      <c r="D163" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>28</v>
+      </c>
+      <c r="B164" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>29</v>
+      </c>
+      <c r="B165" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" t="s">
+        <v>56</v>
+      </c>
+      <c r="D166" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>31</v>
+      </c>
+      <c r="B167" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" t="s">
+        <v>56</v>
+      </c>
+      <c r="D168" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>33</v>
+      </c>
+      <c r="B169" t="s">
+        <v>56</v>
+      </c>
+      <c r="D169" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" t="s">
+        <v>56</v>
+      </c>
+      <c r="D170" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>34</v>
+      </c>
+      <c r="B171" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>291</v>
+      </c>
+      <c r="B172" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" t="s">
+        <v>470</v>
+      </c>
+      <c r="D172" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>292</v>
+      </c>
+      <c r="B173" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" t="s">
+        <v>113</v>
+      </c>
+      <c r="D173" t="s">
+        <v>115</v>
+      </c>
+      <c r="H173" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>533</v>
+      </c>
+      <c r="B174" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>535</v>
+      </c>
+      <c r="B175" t="s">
+        <v>56</v>
+      </c>
+      <c r="C175" t="s">
+        <v>105</v>
+      </c>
+      <c r="H175" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>525</v>
+      </c>
+      <c r="B176" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>527</v>
+      </c>
+      <c r="B177" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>528</v>
+      </c>
+      <c r="B178" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>116</v>
+      </c>
+      <c r="B183" t="s">
+        <v>521</v>
+      </c>
+      <c r="C183" t="s">
+        <v>60</v>
+      </c>
+      <c r="D183" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>117</v>
+      </c>
+      <c r="B184" t="s">
+        <v>521</v>
+      </c>
+      <c r="C184" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>118</v>
+      </c>
+      <c r="B185" t="s">
+        <v>521</v>
+      </c>
+      <c r="C185" t="s">
+        <v>60</v>
+      </c>
+      <c r="D185" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>119</v>
+      </c>
+      <c r="B186" t="s">
+        <v>521</v>
+      </c>
+      <c r="C186" t="s">
+        <v>60</v>
+      </c>
+      <c r="D186" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>120</v>
+      </c>
+      <c r="B187" t="s">
+        <v>521</v>
+      </c>
+      <c r="C187" t="s">
+        <v>60</v>
+      </c>
+      <c r="D187" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>121</v>
+      </c>
+      <c r="B188" t="s">
+        <v>521</v>
+      </c>
+      <c r="C188" t="s">
+        <v>60</v>
+      </c>
+      <c r="D188" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>122</v>
+      </c>
+      <c r="B189" t="s">
+        <v>521</v>
+      </c>
+      <c r="C189" t="s">
+        <v>60</v>
+      </c>
+      <c r="D189" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>123</v>
+      </c>
+      <c r="B190" t="s">
+        <v>521</v>
+      </c>
+      <c r="C190" t="s">
+        <v>61</v>
+      </c>
+      <c r="D190" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>124</v>
+      </c>
+      <c r="B191" t="s">
+        <v>521</v>
+      </c>
+      <c r="C191" t="s">
+        <v>60</v>
+      </c>
+      <c r="D191" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>125</v>
+      </c>
+      <c r="B192" t="s">
+        <v>521</v>
+      </c>
+      <c r="C192" t="s">
+        <v>60</v>
+      </c>
+      <c r="D192" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>126</v>
+      </c>
+      <c r="B193" t="s">
+        <v>521</v>
+      </c>
+      <c r="C193" t="s">
+        <v>60</v>
+      </c>
+      <c r="D193" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>127</v>
+      </c>
+      <c r="B194" t="s">
+        <v>521</v>
+      </c>
+      <c r="C194" t="s">
+        <v>60</v>
+      </c>
+      <c r="D194" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>128</v>
+      </c>
+      <c r="B195" t="s">
+        <v>521</v>
+      </c>
+      <c r="C195" t="s">
+        <v>60</v>
+      </c>
+      <c r="D195" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>129</v>
+      </c>
+      <c r="B196" t="s">
+        <v>521</v>
+      </c>
+      <c r="C196" t="s">
+        <v>62</v>
+      </c>
+      <c r="D196" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>130</v>
+      </c>
+      <c r="B197" t="s">
+        <v>521</v>
+      </c>
+      <c r="C197" t="s">
+        <v>62</v>
+      </c>
+      <c r="D197" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>131</v>
+      </c>
+      <c r="B198" t="s">
+        <v>521</v>
+      </c>
+      <c r="C198" t="s">
+        <v>62</v>
+      </c>
+      <c r="D198" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>132</v>
+      </c>
+      <c r="B199" t="s">
+        <v>521</v>
+      </c>
+      <c r="C199" t="s">
+        <v>62</v>
+      </c>
+      <c r="D199" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>133</v>
+      </c>
+      <c r="B200" t="s">
+        <v>521</v>
+      </c>
+      <c r="C200" t="s">
+        <v>62</v>
+      </c>
+      <c r="D200" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>63</v>
+      </c>
+      <c r="B201" t="s">
+        <v>522</v>
+      </c>
+      <c r="C201" t="s">
+        <v>60</v>
+      </c>
+      <c r="D201" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>64</v>
+      </c>
+      <c r="B202" t="s">
+        <v>522</v>
+      </c>
+      <c r="C202" t="s">
+        <v>60</v>
+      </c>
+      <c r="D202" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>65</v>
+      </c>
+      <c r="B203" t="s">
+        <v>522</v>
+      </c>
+      <c r="C203" t="s">
+        <v>61</v>
+      </c>
+      <c r="D203" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>59</v>
+      </c>
+      <c r="B204" t="s">
+        <v>522</v>
+      </c>
+      <c r="C204" t="s">
+        <v>62</v>
+      </c>
+      <c r="D204" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>57</v>
+      </c>
+      <c r="B205" t="s">
+        <v>523</v>
+      </c>
+      <c r="C205" t="s">
+        <v>60</v>
+      </c>
+      <c r="D205" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>58</v>
+      </c>
+      <c r="B206" t="s">
+        <v>523</v>
+      </c>
+      <c r="C206" t="s">
+        <v>61</v>
+      </c>
+      <c r="D206" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>59</v>
+      </c>
+      <c r="B207" t="s">
+        <v>523</v>
+      </c>
+      <c r="C207" t="s">
+        <v>62</v>
+      </c>
+      <c r="D207" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208" t="s">
+        <v>533</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" t="s">
+        <v>24</v>
+      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>25</v>
+      </c>
+      <c r="B209" t="s">
+        <v>533</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" t="s">
+        <v>25</v>
+      </c>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" t="s">
+        <v>533</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" t="s">
+        <v>26</v>
+      </c>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>135</v>
+      </c>
+      <c r="B211" t="s">
+        <v>525</v>
+      </c>
+      <c r="C211" t="s">
+        <v>319</v>
+      </c>
+      <c r="D211" t="s">
+        <v>135</v>
+      </c>
+      <c r="I211" t="s">
+        <v>342</v>
+      </c>
+      <c r="J211" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>136</v>
+      </c>
+      <c r="B212" t="s">
+        <v>525</v>
+      </c>
+      <c r="C212" t="s">
+        <v>319</v>
+      </c>
+      <c r="D212" t="s">
+        <v>136</v>
+      </c>
+      <c r="I212" t="s">
+        <v>342</v>
+      </c>
+      <c r="J212" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>137</v>
+      </c>
+      <c r="B213" t="s">
+        <v>525</v>
+      </c>
+      <c r="C213" t="s">
+        <v>319</v>
+      </c>
+      <c r="D213" t="s">
+        <v>137</v>
+      </c>
+      <c r="I213" t="s">
+        <v>342</v>
+      </c>
+      <c r="J213" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>138</v>
+      </c>
+      <c r="B214" t="s">
+        <v>525</v>
+      </c>
+      <c r="C214" t="s">
+        <v>319</v>
+      </c>
+      <c r="D214" t="s">
+        <v>138</v>
+      </c>
+      <c r="I214" t="s">
+        <v>342</v>
+      </c>
+      <c r="J214" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>139</v>
+      </c>
+      <c r="B215" t="s">
+        <v>525</v>
+      </c>
+      <c r="C215" t="s">
+        <v>319</v>
+      </c>
+      <c r="D215" t="s">
+        <v>139</v>
+      </c>
+      <c r="I215" t="s">
+        <v>342</v>
+      </c>
+      <c r="J215" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>140</v>
+      </c>
+      <c r="B216" t="s">
+        <v>525</v>
+      </c>
+      <c r="C216" t="s">
+        <v>319</v>
+      </c>
+      <c r="D216" t="s">
+        <v>140</v>
+      </c>
+      <c r="I216" t="s">
+        <v>342</v>
+      </c>
+      <c r="J216" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>141</v>
+      </c>
+      <c r="B217" t="s">
+        <v>525</v>
+      </c>
+      <c r="C217" t="s">
+        <v>319</v>
+      </c>
+      <c r="D217" t="s">
+        <v>141</v>
+      </c>
+      <c r="I217" t="s">
+        <v>342</v>
+      </c>
+      <c r="J217" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>149</v>
+      </c>
+      <c r="B218" t="s">
+        <v>525</v>
+      </c>
+      <c r="C218" t="s">
+        <v>319</v>
+      </c>
+      <c r="D218" t="s">
+        <v>154</v>
+      </c>
+      <c r="I218" t="s">
+        <v>342</v>
+      </c>
+      <c r="J218" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>150</v>
+      </c>
+      <c r="B219" t="s">
+        <v>525</v>
+      </c>
+      <c r="C219" t="s">
+        <v>319</v>
+      </c>
+      <c r="D219" t="s">
+        <v>155</v>
+      </c>
+      <c r="I219" t="s">
+        <v>342</v>
+      </c>
+      <c r="J219" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>151</v>
+      </c>
+      <c r="B220" t="s">
+        <v>525</v>
+      </c>
+      <c r="C220" t="s">
+        <v>319</v>
+      </c>
+      <c r="D220" t="s">
+        <v>157</v>
+      </c>
+      <c r="I220" t="s">
+        <v>342</v>
+      </c>
+      <c r="J220" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>152</v>
+      </c>
+      <c r="B221" t="s">
+        <v>525</v>
+      </c>
+      <c r="C221" t="s">
+        <v>320</v>
+      </c>
+      <c r="D221" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>152</v>
+      </c>
+      <c r="B222" t="s">
+        <v>525</v>
+      </c>
+      <c r="C222" t="s">
+        <v>320</v>
+      </c>
+      <c r="D222" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>169</v>
+      </c>
+      <c r="B223" t="s">
+        <v>527</v>
+      </c>
+      <c r="C223" t="s">
+        <v>186</v>
+      </c>
+      <c r="D223" t="s">
+        <v>203</v>
+      </c>
+      <c r="J223" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>170</v>
+      </c>
+      <c r="B224" t="s">
+        <v>527</v>
+      </c>
+      <c r="C224" t="s">
+        <v>187</v>
+      </c>
+      <c r="D224" t="s">
+        <v>204</v>
+      </c>
+      <c r="J224" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>171</v>
+      </c>
+      <c r="B225" t="s">
+        <v>527</v>
+      </c>
+      <c r="C225" t="s">
+        <v>188</v>
+      </c>
+      <c r="D225" t="s">
+        <v>205</v>
+      </c>
+      <c r="J225" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>172</v>
+      </c>
+      <c r="B226" t="s">
+        <v>527</v>
+      </c>
+      <c r="C226" t="s">
+        <v>189</v>
+      </c>
+      <c r="D226" t="s">
+        <v>206</v>
+      </c>
+      <c r="J226" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>173</v>
+      </c>
+      <c r="B227" t="s">
+        <v>527</v>
+      </c>
+      <c r="C227" t="s">
+        <v>190</v>
+      </c>
+      <c r="D227" t="s">
+        <v>207</v>
+      </c>
+      <c r="J227" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>174</v>
+      </c>
+      <c r="B228" t="s">
+        <v>527</v>
+      </c>
+      <c r="C228" t="s">
+        <v>191</v>
+      </c>
+      <c r="D228" t="s">
+        <v>208</v>
+      </c>
+      <c r="J228" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>175</v>
+      </c>
+      <c r="B229" t="s">
+        <v>527</v>
+      </c>
+      <c r="C229" t="s">
+        <v>192</v>
+      </c>
+      <c r="D229" t="s">
+        <v>209</v>
+      </c>
+      <c r="J229" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>176</v>
+      </c>
+      <c r="B230" t="s">
+        <v>527</v>
+      </c>
+      <c r="C230" t="s">
+        <v>193</v>
+      </c>
+      <c r="D230" t="s">
+        <v>210</v>
+      </c>
+      <c r="J230" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>177</v>
+      </c>
+      <c r="B231" t="s">
+        <v>527</v>
+      </c>
+      <c r="C231" t="s">
+        <v>194</v>
+      </c>
+      <c r="D231" t="s">
+        <v>211</v>
+      </c>
+      <c r="J231" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>178</v>
+      </c>
+      <c r="B232" t="s">
+        <v>527</v>
+      </c>
+      <c r="C232" t="s">
+        <v>195</v>
+      </c>
+      <c r="D232" t="s">
+        <v>212</v>
+      </c>
+      <c r="J232" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>179</v>
+      </c>
+      <c r="B233" t="s">
+        <v>527</v>
+      </c>
+      <c r="C233" t="s">
+        <v>196</v>
+      </c>
+      <c r="D233" t="s">
+        <v>213</v>
+      </c>
+      <c r="J233" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>180</v>
+      </c>
+      <c r="B234" t="s">
+        <v>527</v>
+      </c>
+      <c r="C234" t="s">
+        <v>197</v>
+      </c>
+      <c r="D234" t="s">
+        <v>214</v>
+      </c>
+      <c r="J234" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>181</v>
+      </c>
+      <c r="B235" t="s">
+        <v>527</v>
+      </c>
+      <c r="C235" t="s">
+        <v>198</v>
+      </c>
+      <c r="D235" t="s">
+        <v>215</v>
+      </c>
+      <c r="J235" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>182</v>
+      </c>
+      <c r="B236" t="s">
+        <v>527</v>
+      </c>
+      <c r="C236" t="s">
+        <v>199</v>
+      </c>
+      <c r="D236" t="s">
+        <v>216</v>
+      </c>
+      <c r="J236" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>183</v>
+      </c>
+      <c r="B237" t="s">
+        <v>527</v>
+      </c>
+      <c r="C237" t="s">
+        <v>200</v>
+      </c>
+      <c r="D237" t="s">
+        <v>217</v>
+      </c>
+      <c r="J237" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>184</v>
+      </c>
+      <c r="B238" t="s">
+        <v>527</v>
+      </c>
+      <c r="C238" t="s">
+        <v>201</v>
+      </c>
+      <c r="D238" t="s">
+        <v>218</v>
+      </c>
+      <c r="J238" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>185</v>
+      </c>
+      <c r="B239" t="s">
+        <v>527</v>
+      </c>
+      <c r="C239" t="s">
+        <v>202</v>
+      </c>
+      <c r="D239" t="s">
+        <v>219</v>
+      </c>
+      <c r="J239" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>236</v>
+      </c>
+      <c r="B240" t="s">
+        <v>528</v>
+      </c>
+      <c r="C240" t="s">
+        <v>336</v>
+      </c>
+      <c r="D240" t="s">
+        <v>236</v>
+      </c>
+      <c r="F240" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>325</v>
+      </c>
+      <c r="B241" t="s">
+        <v>528</v>
+      </c>
+      <c r="C241" t="s">
+        <v>336</v>
+      </c>
+      <c r="D241" t="s">
+        <v>325</v>
+      </c>
+      <c r="F241" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>326</v>
+      </c>
+      <c r="B242" t="s">
+        <v>528</v>
+      </c>
+      <c r="C242" t="s">
+        <v>336</v>
+      </c>
+      <c r="D242" t="s">
+        <v>326</v>
+      </c>
+      <c r="F242" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>237</v>
+      </c>
+      <c r="B243" t="s">
+        <v>528</v>
+      </c>
+      <c r="C243" t="s">
+        <v>336</v>
+      </c>
+      <c r="D243" t="s">
+        <v>237</v>
+      </c>
+      <c r="F243" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>327</v>
+      </c>
+      <c r="B244" t="s">
+        <v>528</v>
+      </c>
+      <c r="C244" t="s">
+        <v>336</v>
+      </c>
+      <c r="D244" t="s">
+        <v>327</v>
+      </c>
+      <c r="F244" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>328</v>
+      </c>
+      <c r="B245" t="s">
+        <v>528</v>
+      </c>
+      <c r="C245" t="s">
+        <v>336</v>
+      </c>
+      <c r="D245" t="s">
+        <v>328</v>
+      </c>
+      <c r="F245" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>329</v>
+      </c>
+      <c r="B246" t="s">
+        <v>528</v>
+      </c>
+      <c r="C246" t="s">
+        <v>336</v>
+      </c>
+      <c r="D246" t="s">
+        <v>329</v>
+      </c>
+      <c r="F246" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>330</v>
+      </c>
+      <c r="B247" t="s">
+        <v>528</v>
+      </c>
+      <c r="C247" t="s">
+        <v>336</v>
+      </c>
+      <c r="D247" t="s">
+        <v>330</v>
+      </c>
+      <c r="F247" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>331</v>
+      </c>
+      <c r="B248" t="s">
+        <v>528</v>
+      </c>
+      <c r="C248" t="s">
+        <v>336</v>
+      </c>
+      <c r="D248" t="s">
+        <v>331</v>
+      </c>
+      <c r="F248" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>238</v>
+      </c>
+      <c r="B249" t="s">
+        <v>528</v>
+      </c>
+      <c r="C249" t="s">
+        <v>336</v>
+      </c>
+      <c r="D249" t="s">
+        <v>238</v>
+      </c>
+      <c r="F249" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>332</v>
+      </c>
+      <c r="B250" t="s">
+        <v>528</v>
+      </c>
+      <c r="C250" t="s">
+        <v>336</v>
+      </c>
+      <c r="D250" t="s">
+        <v>332</v>
+      </c>
+      <c r="F250" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>333</v>
+      </c>
+      <c r="B251" t="s">
+        <v>528</v>
+      </c>
+      <c r="C251" t="s">
+        <v>336</v>
+      </c>
+      <c r="D251" t="s">
+        <v>333</v>
+      </c>
+      <c r="F251" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>334</v>
+      </c>
+      <c r="B252" t="s">
+        <v>528</v>
+      </c>
+      <c r="C252" t="s">
+        <v>336</v>
+      </c>
+      <c r="D252" t="s">
+        <v>334</v>
+      </c>
+      <c r="F252" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>335</v>
+      </c>
+      <c r="B253" t="s">
+        <v>528</v>
+      </c>
+      <c r="C253" t="s">
+        <v>336</v>
+      </c>
+      <c r="D253" t="s">
+        <v>335</v>
+      </c>
+      <c r="F253" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>239</v>
+      </c>
+      <c r="B254" t="s">
+        <v>528</v>
+      </c>
+      <c r="C254" t="s">
+        <v>336</v>
+      </c>
+      <c r="D254" t="s">
+        <v>239</v>
+      </c>
+      <c r="F254" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>240</v>
+      </c>
+      <c r="B255" t="s">
+        <v>528</v>
+      </c>
+      <c r="C255" t="s">
+        <v>336</v>
+      </c>
+      <c r="D255" t="s">
+        <v>240</v>
+      </c>
+      <c r="F255" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B259" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="260" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>255</v>
       </c>
-      <c r="B158" t="str">
+      <c r="B260" t="str">
         <f>$A$5</f>
         <v>International Internet Capacity E1</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C260" t="s">
         <v>256</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+    <row r="261" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B159" t="str">
+      <c r="B261" t="str">
         <f>$A$5</f>
         <v>International Internet Capacity E1</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D261" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="262" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>260</v>
       </c>
-      <c r="B160" t="str">
+      <c r="B262" t="str">
         <f>$A$7</f>
         <v>National Leased Line</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D262" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>263</v>
       </c>
-      <c r="B161" t="str">
+      <c r="B263" t="str">
         <f>$A$7</f>
         <v>National Leased Line</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C263" t="s">
         <v>264</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D263" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>267</v>
       </c>
-      <c r="B162" t="str">
+      <c r="B264" t="str">
         <f>$A$7</f>
         <v>National Leased Line</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C264" t="s">
         <v>268</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D264" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>269</v>
       </c>
-      <c r="B163" t="str">
+      <c r="B265" t="str">
         <f>$A$7</f>
         <v>National Leased Line</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C265" t="s">
         <v>270</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D265" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>273</v>
       </c>
-      <c r="B164" t="str">
+      <c r="B266" t="str">
         <f>$A$7</f>
         <v>National Leased Line</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="267" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>274</v>
       </c>
-      <c r="B165" t="str">
+      <c r="B267" t="str">
         <f>$A$8</f>
         <v>VPN</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D267" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>276</v>
       </c>
-      <c r="B166" t="str">
+      <c r="B268" t="str">
         <f>$A$8</f>
         <v>VPN</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C268" t="s">
         <v>264</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D268" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>278</v>
       </c>
-      <c r="B167" t="str">
-        <f t="shared" ref="B167:B169" si="5">$A$8</f>
+      <c r="B269" t="str">
+        <f t="shared" ref="B269:B271" si="5">$A$8</f>
         <v>VPN</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C269" t="s">
         <v>280</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D269" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>279</v>
       </c>
-      <c r="B168" t="str">
+      <c r="B270" t="str">
         <f t="shared" si="5"/>
         <v>VPN</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C270" t="s">
         <v>281</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D270" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>277</v>
       </c>
-      <c r="B169" t="str">
+      <c r="B271" t="str">
         <f t="shared" si="5"/>
         <v>VPN</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>282</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B275" t="s">
         <v>283</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C275" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>284</v>
+      </c>
+      <c r="B276" t="s">
+        <v>283</v>
+      </c>
+      <c r="C276" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>284</v>
-      </c>
-      <c r="B174" t="s">
-        <v>283</v>
-      </c>
-      <c r="C174" s="4" t="s">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>289</v>
+      </c>
+      <c r="B277" t="s">
+        <v>288</v>
+      </c>
+      <c r="C277" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>289</v>
-      </c>
-      <c r="B175" t="s">
-        <v>288</v>
-      </c>
-      <c r="C175" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4172,7 +6018,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4283,10 +6129,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459025B9-00C6-403A-9854-EC2EF15E2198}">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A67" sqref="A66:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4303,2262 +6149,2421 @@
     <col min="11" max="11" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>476</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>322</v>
+      </c>
+      <c r="F14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>476</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>322</v>
+      </c>
+      <c r="F16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
         <v>304</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C21" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D23" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D24" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>481</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D26" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>490</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D29" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D30" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D31" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D32" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D34" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D35" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D36" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>290</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>354</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C11" t="s">
-        <v>355</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>367</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>367</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>367</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>367</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>367</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>367</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>292</v>
-      </c>
-      <c r="B21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" t="s">
-        <v>366</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>291</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B51" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" t="s">
-        <v>113</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="A66" s="5" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E71" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="G71" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="I67" s="1" t="s">
+      <c r="I71" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" t="s">
-        <v>339</v>
-      </c>
-      <c r="C68" t="s">
-        <v>298</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
-        <v>301</v>
-      </c>
-      <c r="G68" t="s">
-        <v>60</v>
-      </c>
-      <c r="H68" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" t="s">
-        <v>339</v>
-      </c>
-      <c r="C69" t="s">
-        <v>298</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>301</v>
-      </c>
-      <c r="F69">
-        <v>40</v>
-      </c>
-      <c r="G69" t="s">
-        <v>60</v>
-      </c>
-      <c r="H69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" t="s">
-        <v>339</v>
-      </c>
-      <c r="C70" t="s">
-        <v>298</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70" t="s">
-        <v>301</v>
-      </c>
-      <c r="G70" t="s">
-        <v>60</v>
-      </c>
-      <c r="H70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" t="s">
-        <v>339</v>
-      </c>
-      <c r="C71" t="s">
-        <v>298</v>
-      </c>
-      <c r="E71" t="s">
-        <v>302</v>
-      </c>
-      <c r="F71">
-        <v>50</v>
-      </c>
-      <c r="G71" t="s">
-        <v>60</v>
-      </c>
-      <c r="H71" t="s">
-        <v>119</v>
-      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>302</v>
-      </c>
-      <c r="F72">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G72" t="s">
         <v>60</v>
       </c>
       <c r="H72" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B73" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C73" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F73">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
         <v>60</v>
       </c>
       <c r="H73" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>302</v>
-      </c>
-      <c r="F74">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G74" t="s">
         <v>60</v>
       </c>
       <c r="H74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>297</v>
+      </c>
+      <c r="E75" t="s">
+        <v>301</v>
+      </c>
+      <c r="F75">
+        <v>50</v>
       </c>
       <c r="G75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H75" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C76" t="s">
-        <v>298</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
+        <v>297</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>301</v>
+      </c>
+      <c r="F76">
+        <v>100</v>
       </c>
       <c r="G76" t="s">
         <v>60</v>
       </c>
       <c r="H76" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C77" t="s">
-        <v>298</v>
-      </c>
-      <c r="D77">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="E77" t="s">
-        <v>303</v>
+        <v>301</v>
+      </c>
+      <c r="F77">
+        <v>150</v>
       </c>
       <c r="G77" t="s">
         <v>60</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C78" t="s">
-        <v>298</v>
-      </c>
-      <c r="D78">
-        <v>6</v>
+        <v>297</v>
       </c>
       <c r="E78" t="s">
-        <v>303</v>
+        <v>301</v>
+      </c>
+      <c r="F78">
+        <v>200</v>
       </c>
       <c r="G78" t="s">
         <v>60</v>
       </c>
       <c r="H78" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
-      </c>
-      <c r="D79">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="G79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H79" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G80" t="s">
         <v>60</v>
       </c>
       <c r="H80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>338</v>
+      </c>
+      <c r="C81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>302</v>
+      </c>
+      <c r="G81" t="s">
+        <v>60</v>
+      </c>
+      <c r="H81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" t="s">
+        <v>338</v>
+      </c>
+      <c r="C82" t="s">
+        <v>297</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>302</v>
+      </c>
+      <c r="G82" t="s">
+        <v>60</v>
+      </c>
+      <c r="H82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" t="s">
+        <v>338</v>
+      </c>
+      <c r="C83" t="s">
+        <v>297</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>302</v>
+      </c>
+      <c r="G83" t="s">
+        <v>60</v>
+      </c>
+      <c r="H83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B84" t="s">
+        <v>338</v>
+      </c>
+      <c r="C84" t="s">
+        <v>297</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>302</v>
+      </c>
+      <c r="G84" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>129</v>
       </c>
-      <c r="B81" t="s">
-        <v>339</v>
-      </c>
-      <c r="C81" t="s">
-        <v>299</v>
-      </c>
-      <c r="D81">
-        <v>50</v>
-      </c>
-      <c r="F81">
-        <v>300</v>
-      </c>
-      <c r="G81" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>130</v>
-      </c>
-      <c r="B82" t="s">
-        <v>339</v>
-      </c>
-      <c r="C82" t="s">
-        <v>299</v>
-      </c>
-      <c r="D82">
-        <v>50</v>
-      </c>
-      <c r="F82">
-        <v>400</v>
-      </c>
-      <c r="G82" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>131</v>
-      </c>
-      <c r="B83" t="s">
-        <v>339</v>
-      </c>
-      <c r="C83" t="s">
-        <v>299</v>
-      </c>
-      <c r="D83">
-        <v>50</v>
-      </c>
-      <c r="F83">
-        <v>500</v>
-      </c>
-      <c r="G83" t="s">
-        <v>62</v>
-      </c>
-      <c r="H83" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>132</v>
-      </c>
-      <c r="B84" t="s">
-        <v>339</v>
-      </c>
-      <c r="C84" t="s">
-        <v>299</v>
-      </c>
-      <c r="D84">
-        <v>50</v>
-      </c>
-      <c r="F84">
-        <v>700</v>
-      </c>
-      <c r="G84" t="s">
-        <v>62</v>
-      </c>
-      <c r="H84" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>133</v>
-      </c>
       <c r="B85" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D85">
         <v>50</v>
       </c>
       <c r="F85">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G85" t="s">
         <v>62</v>
       </c>
       <c r="H85" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C86" t="s">
         <v>298</v>
       </c>
       <c r="D86">
-        <v>4</v>
-      </c>
-      <c r="E86" t="s">
-        <v>301</v>
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <v>400</v>
       </c>
       <c r="G86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H86" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="B87" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C87" t="s">
         <v>298</v>
       </c>
-      <c r="E87" t="s">
-        <v>302</v>
+      <c r="D87">
+        <v>50</v>
+      </c>
+      <c r="F87">
+        <v>500</v>
       </c>
       <c r="G87" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H87" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="B88" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C88" t="s">
-        <v>58</v>
+        <v>298</v>
+      </c>
+      <c r="D88">
+        <v>50</v>
+      </c>
+      <c r="F88">
+        <v>700</v>
       </c>
       <c r="G88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H88" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="B89" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D89">
         <v>50</v>
       </c>
+      <c r="F89">
+        <v>1000</v>
+      </c>
       <c r="G89" t="s">
         <v>62</v>
       </c>
       <c r="H89" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C90" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>300</v>
       </c>
       <c r="G90" t="s">
         <v>60</v>
       </c>
       <c r="H90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" t="s">
+        <v>339</v>
+      </c>
+      <c r="C91" t="s">
+        <v>297</v>
+      </c>
+      <c r="E91" t="s">
+        <v>301</v>
+      </c>
+      <c r="G91" t="s">
+        <v>60</v>
+      </c>
+      <c r="H91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="G92" t="s">
+        <v>61</v>
+      </c>
+      <c r="H92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" t="s">
+        <v>298</v>
+      </c>
+      <c r="D93">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" t="s">
+        <v>297</v>
+      </c>
+      <c r="G94" t="s">
+        <v>60</v>
+      </c>
+      <c r="H94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>58</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B95" t="s">
+        <v>340</v>
+      </c>
+      <c r="C95" t="s">
+        <v>58</v>
+      </c>
+      <c r="G95" t="s">
+        <v>61</v>
+      </c>
+      <c r="H95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" t="s">
+        <v>340</v>
+      </c>
+      <c r="C96" t="s">
+        <v>298</v>
+      </c>
+      <c r="G96" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C91" t="s">
-        <v>58</v>
-      </c>
-      <c r="G91" t="s">
-        <v>61</v>
-      </c>
-      <c r="H91" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>59</v>
-      </c>
-      <c r="B92" t="s">
-        <v>341</v>
-      </c>
-      <c r="C92" t="s">
-        <v>299</v>
-      </c>
-      <c r="G92" t="s">
-        <v>62</v>
-      </c>
-      <c r="H92" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>135</v>
-      </c>
-      <c r="B97" t="s">
-        <v>316</v>
-      </c>
-      <c r="C97">
-        <v>100</v>
-      </c>
-      <c r="D97">
-        <v>2000</v>
-      </c>
-      <c r="E97" t="s">
-        <v>320</v>
-      </c>
-      <c r="F97" t="s">
-        <v>135</v>
-      </c>
-      <c r="G97" t="s">
-        <v>322</v>
-      </c>
-      <c r="H97" t="s">
-        <v>343</v>
-      </c>
-      <c r="I97" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" t="s">
-        <v>316</v>
-      </c>
-      <c r="C98">
-        <v>2100</v>
-      </c>
-      <c r="D98">
-        <v>5000</v>
-      </c>
-      <c r="E98" t="s">
-        <v>320</v>
-      </c>
-      <c r="F98" t="s">
-        <v>136</v>
-      </c>
-      <c r="G98" t="s">
-        <v>322</v>
-      </c>
-      <c r="H98" t="s">
-        <v>343</v>
-      </c>
-      <c r="I98" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>137</v>
-      </c>
-      <c r="B99" t="s">
-        <v>316</v>
-      </c>
-      <c r="C99">
-        <v>5100</v>
-      </c>
-      <c r="D99">
-        <v>10000</v>
-      </c>
-      <c r="E99" t="s">
-        <v>320</v>
-      </c>
-      <c r="F99" t="s">
-        <v>137</v>
-      </c>
-      <c r="G99" t="s">
-        <v>322</v>
-      </c>
-      <c r="H99" t="s">
-        <v>343</v>
-      </c>
-      <c r="I99" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>138</v>
-      </c>
-      <c r="B100" t="s">
-        <v>316</v>
-      </c>
-      <c r="C100">
-        <v>11000</v>
-      </c>
-      <c r="D100">
-        <v>20000</v>
-      </c>
-      <c r="E100" t="s">
-        <v>320</v>
-      </c>
-      <c r="F100" t="s">
-        <v>138</v>
-      </c>
-      <c r="G100" t="s">
-        <v>322</v>
-      </c>
-      <c r="H100" t="s">
-        <v>343</v>
-      </c>
-      <c r="I100" t="s">
-        <v>348</v>
+      <c r="I100" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C101">
-        <v>21000</v>
+        <v>100</v>
       </c>
       <c r="D101">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="E101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F101" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G101" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I101" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102">
+        <v>2100</v>
+      </c>
+      <c r="D102">
+        <v>5000</v>
+      </c>
+      <c r="E102" t="s">
+        <v>319</v>
+      </c>
+      <c r="F102" t="s">
+        <v>136</v>
+      </c>
+      <c r="G102" t="s">
+        <v>321</v>
+      </c>
+      <c r="H102" t="s">
+        <v>342</v>
+      </c>
+      <c r="I102" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103">
+        <v>5100</v>
+      </c>
+      <c r="D103">
+        <v>10000</v>
+      </c>
+      <c r="E103" t="s">
+        <v>319</v>
+      </c>
+      <c r="F103" t="s">
+        <v>137</v>
+      </c>
+      <c r="G103" t="s">
+        <v>321</v>
+      </c>
+      <c r="H103" t="s">
+        <v>342</v>
+      </c>
+      <c r="I103" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" t="s">
+        <v>315</v>
+      </c>
+      <c r="C104">
+        <v>11000</v>
+      </c>
+      <c r="D104">
+        <v>20000</v>
+      </c>
+      <c r="E104" t="s">
+        <v>319</v>
+      </c>
+      <c r="F104" t="s">
+        <v>138</v>
+      </c>
+      <c r="G104" t="s">
+        <v>321</v>
+      </c>
+      <c r="H104" t="s">
+        <v>342</v>
+      </c>
+      <c r="I104" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" t="s">
+        <v>315</v>
+      </c>
+      <c r="C105">
+        <v>21000</v>
+      </c>
+      <c r="D105">
+        <v>40000</v>
+      </c>
+      <c r="E105" t="s">
+        <v>319</v>
+      </c>
+      <c r="F105" t="s">
+        <v>139</v>
+      </c>
+      <c r="G105" t="s">
+        <v>321</v>
+      </c>
+      <c r="H105" t="s">
+        <v>342</v>
+      </c>
+      <c r="I105" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>140</v>
       </c>
-      <c r="B102" t="s">
-        <v>316</v>
-      </c>
-      <c r="C102">
+      <c r="B106" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106">
         <v>41000</v>
       </c>
-      <c r="D102">
+      <c r="D106">
         <v>60000</v>
       </c>
-      <c r="E102" t="s">
-        <v>320</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="E106" t="s">
+        <v>319</v>
+      </c>
+      <c r="F106" t="s">
         <v>140</v>
       </c>
-      <c r="G102" t="s">
-        <v>322</v>
-      </c>
-      <c r="H102" t="s">
-        <v>343</v>
-      </c>
-      <c r="I102" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="G106" t="s">
+        <v>321</v>
+      </c>
+      <c r="H106" t="s">
+        <v>342</v>
+      </c>
+      <c r="I106" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>141</v>
       </c>
-      <c r="B103" t="s">
-        <v>316</v>
-      </c>
-      <c r="C103">
+      <c r="B107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107">
         <v>61000</v>
       </c>
-      <c r="E103" t="s">
-        <v>320</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="E107" t="s">
+        <v>319</v>
+      </c>
+      <c r="F107" t="s">
         <v>141</v>
       </c>
-      <c r="G103" t="s">
-        <v>322</v>
-      </c>
-      <c r="H103" t="s">
-        <v>343</v>
-      </c>
-      <c r="I103" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" t="s">
-        <v>317</v>
-      </c>
-      <c r="C104">
-        <v>50</v>
-      </c>
-      <c r="E104" t="s">
-        <v>320</v>
-      </c>
-      <c r="F104" t="s">
-        <v>154</v>
-      </c>
-      <c r="G104" t="s">
-        <v>322</v>
-      </c>
-      <c r="H104" t="s">
-        <v>343</v>
-      </c>
-      <c r="I104" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>150</v>
-      </c>
-      <c r="B105" t="s">
-        <v>317</v>
-      </c>
-      <c r="C105">
-        <v>10</v>
-      </c>
-      <c r="D105">
-        <v>50</v>
-      </c>
-      <c r="E105" t="s">
-        <v>320</v>
-      </c>
-      <c r="F105" t="s">
-        <v>155</v>
-      </c>
-      <c r="G105" t="s">
-        <v>322</v>
-      </c>
-      <c r="H105" t="s">
-        <v>343</v>
-      </c>
-      <c r="I105" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>151</v>
-      </c>
-      <c r="B106" t="s">
-        <v>318</v>
-      </c>
-      <c r="C106">
-        <v>10</v>
-      </c>
-      <c r="E106" t="s">
-        <v>320</v>
-      </c>
-      <c r="F106" t="s">
-        <v>157</v>
-      </c>
-      <c r="G106" t="s">
-        <v>322</v>
-      </c>
-      <c r="H106" t="s">
-        <v>343</v>
-      </c>
-      <c r="I106" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>152</v>
-      </c>
-      <c r="B107" t="s">
-        <v>319</v>
-      </c>
-      <c r="D107">
-        <v>10</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="G107" t="s">
         <v>321</v>
       </c>
-      <c r="F107" t="s">
-        <v>156</v>
-      </c>
-      <c r="G107" t="s">
-        <v>323</v>
+      <c r="H107" t="s">
+        <v>342</v>
+      </c>
+      <c r="I107" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108">
+        <v>50</v>
+      </c>
+      <c r="E108" t="s">
+        <v>319</v>
+      </c>
+      <c r="F108" t="s">
+        <v>154</v>
+      </c>
+      <c r="G108" t="s">
+        <v>321</v>
+      </c>
+      <c r="H108" t="s">
+        <v>342</v>
+      </c>
+      <c r="I108" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" t="s">
+        <v>316</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>50</v>
+      </c>
+      <c r="E109" t="s">
+        <v>319</v>
+      </c>
+      <c r="F109" t="s">
+        <v>155</v>
+      </c>
+      <c r="G109" t="s">
+        <v>321</v>
+      </c>
+      <c r="H109" t="s">
+        <v>342</v>
+      </c>
+      <c r="I109" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" t="s">
+        <v>317</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>319</v>
+      </c>
+      <c r="F110" t="s">
+        <v>157</v>
+      </c>
+      <c r="G110" t="s">
+        <v>321</v>
+      </c>
+      <c r="H110" t="s">
+        <v>342</v>
+      </c>
+      <c r="I110" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>152</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B111" t="s">
         <v>318</v>
       </c>
-      <c r="D108">
+      <c r="D111">
         <v>10</v>
       </c>
-      <c r="E108" t="s">
-        <v>321</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E111" t="s">
+        <v>320</v>
+      </c>
+      <c r="F111" t="s">
+        <v>156</v>
+      </c>
+      <c r="G111" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" t="s">
+        <v>317</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>320</v>
+      </c>
+      <c r="F112" t="s">
         <v>158</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G112" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>169</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
-      </c>
-      <c r="C113">
-        <v>155</v>
-      </c>
-      <c r="D113" t="s">
-        <v>186</v>
-      </c>
-      <c r="E113" t="s">
-        <v>203</v>
-      </c>
-      <c r="G113" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>170</v>
-      </c>
-      <c r="B114">
-        <v>155</v>
-      </c>
-      <c r="C114">
-        <v>622</v>
-      </c>
-      <c r="D114" t="s">
-        <v>187</v>
-      </c>
-      <c r="E114" t="s">
-        <v>204</v>
-      </c>
-      <c r="G114" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>171</v>
-      </c>
-      <c r="B115">
-        <v>622</v>
-      </c>
-      <c r="C115">
-        <v>2488</v>
-      </c>
-      <c r="D115" t="s">
-        <v>188</v>
-      </c>
-      <c r="E115" t="s">
-        <v>205</v>
-      </c>
-      <c r="G115" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>172</v>
-      </c>
-      <c r="B116">
-        <v>2488</v>
-      </c>
-      <c r="C116">
-        <v>10000</v>
-      </c>
-      <c r="D116" t="s">
-        <v>189</v>
-      </c>
-      <c r="E116" t="s">
-        <v>206</v>
-      </c>
-      <c r="G116" t="s">
-        <v>345</v>
+      <c r="D116" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="D117" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E117" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G117" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B118">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C118">
-        <v>100</v>
+        <v>622</v>
       </c>
       <c r="D118" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E118" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G118" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B119">
-        <v>100</v>
+        <v>622</v>
       </c>
       <c r="C119">
-        <v>200</v>
+        <v>2488</v>
       </c>
       <c r="D119" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E119" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B120">
-        <v>200</v>
+        <v>2488</v>
       </c>
       <c r="C120">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="D120" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E120" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G120" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B121">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D121" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E121" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G121" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B122">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="C122">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D122" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E122" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G122" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B123">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C123">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D123" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E123" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G123" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B124">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="C124">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="D124" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E124" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B125">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="C125">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D125" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E125" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B126">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C126">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="D126" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E126" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G126" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B127">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="C127">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D127" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E127" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G127" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B128">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C128">
-        <v>10000</v>
+        <v>700</v>
       </c>
       <c r="D128" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E128" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G128" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>181</v>
+      </c>
+      <c r="B129">
+        <v>700</v>
+      </c>
+      <c r="C129">
+        <v>800</v>
+      </c>
+      <c r="D129" t="s">
+        <v>198</v>
+      </c>
+      <c r="E129" t="s">
+        <v>215</v>
+      </c>
+      <c r="G129" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>182</v>
+      </c>
+      <c r="B130">
+        <v>800</v>
+      </c>
+      <c r="C130">
+        <v>900</v>
+      </c>
+      <c r="D130" t="s">
+        <v>199</v>
+      </c>
+      <c r="E130" t="s">
+        <v>216</v>
+      </c>
+      <c r="G130" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>183</v>
+      </c>
+      <c r="B131">
+        <v>900</v>
+      </c>
+      <c r="C131">
+        <v>1000</v>
+      </c>
+      <c r="D131" t="s">
+        <v>200</v>
+      </c>
+      <c r="E131" t="s">
+        <v>217</v>
+      </c>
+      <c r="G131" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132">
+        <v>1000</v>
+      </c>
+      <c r="C132">
+        <v>10000</v>
+      </c>
+      <c r="D132" t="s">
+        <v>201</v>
+      </c>
+      <c r="E132" t="s">
+        <v>218</v>
+      </c>
+      <c r="G132" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>185</v>
       </c>
-      <c r="B129">
+      <c r="B133">
         <v>10000</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D133" t="s">
         <v>202</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E133" t="s">
         <v>219</v>
       </c>
-      <c r="G129" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="G133" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="B137" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E137" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>236</v>
-      </c>
-      <c r="B134" t="s">
-        <v>298</v>
-      </c>
-      <c r="C134">
-        <v>2</v>
-      </c>
-      <c r="D134">
-        <v>50</v>
-      </c>
-      <c r="E134" t="s">
-        <v>337</v>
-      </c>
-      <c r="F134" t="s">
-        <v>236</v>
-      </c>
-      <c r="G134" t="s">
-        <v>322</v>
-      </c>
-      <c r="I134" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>326</v>
-      </c>
-      <c r="B135" t="s">
-        <v>298</v>
-      </c>
-      <c r="C135">
-        <v>50</v>
-      </c>
-      <c r="D135">
-        <v>100</v>
-      </c>
-      <c r="E135" t="s">
-        <v>337</v>
-      </c>
-      <c r="F135" t="s">
-        <v>326</v>
-      </c>
-      <c r="G135" t="s">
-        <v>322</v>
-      </c>
-      <c r="I135" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>327</v>
-      </c>
-      <c r="B136" t="s">
-        <v>298</v>
-      </c>
-      <c r="C136">
-        <v>100</v>
-      </c>
-      <c r="D136">
-        <v>155</v>
-      </c>
-      <c r="E136" t="s">
-        <v>337</v>
-      </c>
-      <c r="F136" t="s">
-        <v>327</v>
-      </c>
-      <c r="G136" t="s">
-        <v>322</v>
-      </c>
-      <c r="I136" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>237</v>
-      </c>
-      <c r="B137" t="s">
-        <v>299</v>
-      </c>
-      <c r="C137">
-        <v>155</v>
-      </c>
-      <c r="D137">
-        <v>200</v>
-      </c>
-      <c r="E137" t="s">
-        <v>337</v>
-      </c>
-      <c r="F137" t="s">
-        <v>237</v>
-      </c>
-      <c r="G137" t="s">
-        <v>322</v>
-      </c>
-      <c r="I137" t="s">
-        <v>344</v>
+      <c r="H137" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="B138" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C138">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E138" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F138" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="G138" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I138" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B139" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C139">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D139">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E139" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F139" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G139" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I139" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B140" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C140">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D140">
-        <v>500</v>
+        <v>155</v>
       </c>
       <c r="E140" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F140" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G140" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I140" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="B141" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C141">
-        <v>500</v>
+        <v>155</v>
       </c>
       <c r="D141">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E141" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F141" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="G141" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I141" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B142" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C142">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D142">
-        <v>622</v>
+        <v>300</v>
       </c>
       <c r="E142" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F142" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G142" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I142" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C143">
-        <v>622</v>
+        <v>300</v>
       </c>
       <c r="D143">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E143" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F143" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="G143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I143" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C144">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="D144">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E144" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F144" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G144" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I144" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B145" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C145">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D145">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E145" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F145" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G145" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I145" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B146" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C146">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D146">
-        <v>1000</v>
+        <v>622</v>
       </c>
       <c r="E146" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F146" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G146" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I146" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>238</v>
+      </c>
+      <c r="B147" t="s">
+        <v>298</v>
+      </c>
+      <c r="C147">
+        <v>622</v>
+      </c>
+      <c r="D147">
+        <v>700</v>
+      </c>
+      <c r="E147" t="s">
         <v>336</v>
       </c>
-      <c r="B147" t="s">
-        <v>299</v>
-      </c>
-      <c r="C147">
-        <v>1000</v>
-      </c>
-      <c r="D147">
-        <v>2488</v>
-      </c>
-      <c r="E147" t="s">
-        <v>337</v>
-      </c>
       <c r="F147" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="G147" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I147" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C148">
-        <v>2488</v>
+        <v>700</v>
       </c>
       <c r="D148">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="E148" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F148" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="G148" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I148" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>333</v>
+      </c>
+      <c r="B149" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149">
+        <v>800</v>
+      </c>
+      <c r="D149">
+        <v>900</v>
+      </c>
+      <c r="E149" t="s">
+        <v>336</v>
+      </c>
+      <c r="F149" t="s">
+        <v>333</v>
+      </c>
+      <c r="G149" t="s">
+        <v>321</v>
+      </c>
+      <c r="I149" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>334</v>
+      </c>
+      <c r="B150" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150">
+        <v>900</v>
+      </c>
+      <c r="D150">
+        <v>1000</v>
+      </c>
+      <c r="E150" t="s">
+        <v>336</v>
+      </c>
+      <c r="F150" t="s">
+        <v>334</v>
+      </c>
+      <c r="G150" t="s">
+        <v>321</v>
+      </c>
+      <c r="I150" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>335</v>
+      </c>
+      <c r="B151" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151">
+        <v>1000</v>
+      </c>
+      <c r="D151">
+        <v>2488</v>
+      </c>
+      <c r="E151" t="s">
+        <v>336</v>
+      </c>
+      <c r="F151" t="s">
+        <v>335</v>
+      </c>
+      <c r="G151" t="s">
+        <v>321</v>
+      </c>
+      <c r="I151" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>239</v>
+      </c>
+      <c r="B152" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152">
+        <v>2488</v>
+      </c>
+      <c r="D152">
+        <v>10000</v>
+      </c>
+      <c r="E152" t="s">
+        <v>336</v>
+      </c>
+      <c r="F152" t="s">
+        <v>239</v>
+      </c>
+      <c r="G152" t="s">
+        <v>321</v>
+      </c>
+      <c r="I152" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>240</v>
       </c>
-      <c r="B149" t="s">
-        <v>299</v>
-      </c>
-      <c r="C149">
+      <c r="B153" t="s">
+        <v>298</v>
+      </c>
+      <c r="C153">
         <v>10000</v>
       </c>
-      <c r="E149" t="s">
-        <v>337</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="E153" t="s">
+        <v>336</v>
+      </c>
+      <c r="F153" t="s">
         <v>240</v>
       </c>
-      <c r="G149" t="s">
-        <v>322</v>
-      </c>
-      <c r="I149" t="s">
-        <v>344</v>
+      <c r="G153" t="s">
+        <v>321</v>
+      </c>
+      <c r="I153" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6567,11 +8572,2185 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5AABEA-1065-4C29-9918-AD38D19378B7}">
+  <dimension ref="A3:P121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5" t="s">
+        <v>517</v>
+      </c>
+      <c r="G5" t="s">
+        <v>517</v>
+      </c>
+      <c r="H5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" t="s">
+        <v>517</v>
+      </c>
+      <c r="G6" t="s">
+        <v>517</v>
+      </c>
+      <c r="H6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G7" t="s">
+        <v>517</v>
+      </c>
+      <c r="H7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F8" t="s">
+        <v>517</v>
+      </c>
+      <c r="G8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D9" t="s">
+        <v>518</v>
+      </c>
+      <c r="E9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F9" t="s">
+        <v>517</v>
+      </c>
+      <c r="G9" t="s">
+        <v>517</v>
+      </c>
+      <c r="H9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>539</v>
+      </c>
+      <c r="D10" t="s">
+        <v>518</v>
+      </c>
+      <c r="E10" t="s">
+        <v>517</v>
+      </c>
+      <c r="F10" t="s">
+        <v>517</v>
+      </c>
+      <c r="G10" t="s">
+        <v>517</v>
+      </c>
+      <c r="H10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F11" t="s">
+        <v>517</v>
+      </c>
+      <c r="G11" t="s">
+        <v>517</v>
+      </c>
+      <c r="H11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>539</v>
+      </c>
+      <c r="D12" t="s">
+        <v>518</v>
+      </c>
+      <c r="E12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F12" t="s">
+        <v>517</v>
+      </c>
+      <c r="G12" t="s">
+        <v>517</v>
+      </c>
+      <c r="H12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D13" t="s">
+        <v>518</v>
+      </c>
+      <c r="E13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F13" t="s">
+        <v>517</v>
+      </c>
+      <c r="G13" t="s">
+        <v>517</v>
+      </c>
+      <c r="H13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E14" t="s">
+        <v>517</v>
+      </c>
+      <c r="F14" t="s">
+        <v>517</v>
+      </c>
+      <c r="G14" t="s">
+        <v>517</v>
+      </c>
+      <c r="H14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" t="s">
+        <v>518</v>
+      </c>
+      <c r="E15" t="s">
+        <v>517</v>
+      </c>
+      <c r="F15" t="s">
+        <v>517</v>
+      </c>
+      <c r="G15" t="s">
+        <v>517</v>
+      </c>
+      <c r="H15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D16" t="s">
+        <v>518</v>
+      </c>
+      <c r="E16" t="s">
+        <v>517</v>
+      </c>
+      <c r="F16" t="s">
+        <v>517</v>
+      </c>
+      <c r="G16" t="s">
+        <v>517</v>
+      </c>
+      <c r="H16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>539</v>
+      </c>
+      <c r="D17" t="s">
+        <v>518</v>
+      </c>
+      <c r="E17" t="s">
+        <v>517</v>
+      </c>
+      <c r="F17" t="s">
+        <v>517</v>
+      </c>
+      <c r="G17" t="s">
+        <v>517</v>
+      </c>
+      <c r="H17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>540</v>
+      </c>
+      <c r="D18" t="s">
+        <v>518</v>
+      </c>
+      <c r="E18" t="s">
+        <v>517</v>
+      </c>
+      <c r="F18" t="s">
+        <v>517</v>
+      </c>
+      <c r="G18" t="s">
+        <v>517</v>
+      </c>
+      <c r="H18" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>540</v>
+      </c>
+      <c r="D19" t="s">
+        <v>518</v>
+      </c>
+      <c r="E19" t="s">
+        <v>517</v>
+      </c>
+      <c r="F19" t="s">
+        <v>517</v>
+      </c>
+      <c r="G19" t="s">
+        <v>517</v>
+      </c>
+      <c r="H19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>533</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>533</v>
+      </c>
+      <c r="D20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>535</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>539</v>
+      </c>
+      <c r="D21" t="s">
+        <v>518</v>
+      </c>
+      <c r="E21" t="s">
+        <v>517</v>
+      </c>
+      <c r="F21" t="s">
+        <v>517</v>
+      </c>
+      <c r="G21" t="s">
+        <v>517</v>
+      </c>
+      <c r="H21" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>541</v>
+      </c>
+      <c r="D22" t="s">
+        <v>518</v>
+      </c>
+      <c r="E22" t="s">
+        <v>518</v>
+      </c>
+      <c r="F22" t="s">
+        <v>518</v>
+      </c>
+      <c r="G22" t="s">
+        <v>517</v>
+      </c>
+      <c r="H22" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>527</v>
+      </c>
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>541</v>
+      </c>
+      <c r="D23" t="s">
+        <v>518</v>
+      </c>
+      <c r="E23" t="s">
+        <v>518</v>
+      </c>
+      <c r="F23" t="s">
+        <v>518</v>
+      </c>
+      <c r="G23" t="s">
+        <v>518</v>
+      </c>
+      <c r="H23" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>528</v>
+      </c>
+      <c r="B24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" t="s">
+        <v>541</v>
+      </c>
+      <c r="D24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E24" t="s">
+        <v>518</v>
+      </c>
+      <c r="F24" t="s">
+        <v>518</v>
+      </c>
+      <c r="G24" t="s">
+        <v>518</v>
+      </c>
+      <c r="H24" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>521</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" t="s">
+        <v>517</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>521</v>
+      </c>
+      <c r="C30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" t="s">
+        <v>517</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>300</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
+        <v>521</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" t="s">
+        <v>517</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E32" t="s">
+        <v>517</v>
+      </c>
+      <c r="G32" t="s">
+        <v>301</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>521</v>
+      </c>
+      <c r="C33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33" t="s">
+        <v>517</v>
+      </c>
+      <c r="G33" t="s">
+        <v>301</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>521</v>
+      </c>
+      <c r="C34" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G34" t="s">
+        <v>301</v>
+      </c>
+      <c r="H34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
+        <v>521</v>
+      </c>
+      <c r="C35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G35" t="s">
+        <v>301</v>
+      </c>
+      <c r="H35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>521</v>
+      </c>
+      <c r="C36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E36" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>521</v>
+      </c>
+      <c r="C37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" t="s">
+        <v>517</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>521</v>
+      </c>
+      <c r="C38" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" t="s">
+        <v>517</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>521</v>
+      </c>
+      <c r="C39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" t="s">
+        <v>517</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>521</v>
+      </c>
+      <c r="C40" t="s">
+        <v>297</v>
+      </c>
+      <c r="E40" t="s">
+        <v>517</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>521</v>
+      </c>
+      <c r="C41" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" t="s">
+        <v>517</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C42" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" t="s">
+        <v>517</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" t="s">
+        <v>521</v>
+      </c>
+      <c r="C43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" t="s">
+        <v>517</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>521</v>
+      </c>
+      <c r="C44" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" t="s">
+        <v>517</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>521</v>
+      </c>
+      <c r="C45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" t="s">
+        <v>517</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>521</v>
+      </c>
+      <c r="C46" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" t="s">
+        <v>517</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>522</v>
+      </c>
+      <c r="C47" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" t="s">
+        <v>517</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>522</v>
+      </c>
+      <c r="C48" t="s">
+        <v>297</v>
+      </c>
+      <c r="E48" t="s">
+        <v>517</v>
+      </c>
+      <c r="G48" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>522</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>522</v>
+      </c>
+      <c r="C50" t="s">
+        <v>298</v>
+      </c>
+      <c r="E50" t="s">
+        <v>517</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>523</v>
+      </c>
+      <c r="C51" t="s">
+        <v>297</v>
+      </c>
+      <c r="E51" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>523</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>523</v>
+      </c>
+      <c r="C53" t="s">
+        <v>298</v>
+      </c>
+      <c r="E53" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>533</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" t="s">
+        <v>517</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>533</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" t="s">
+        <v>517</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>533</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" t="s">
+        <v>517</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" t="s">
+        <v>525</v>
+      </c>
+      <c r="D57" t="s">
+        <v>315</v>
+      </c>
+      <c r="E57" t="s">
+        <v>518</v>
+      </c>
+      <c r="I57">
+        <v>100</v>
+      </c>
+      <c r="J57">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
+        <v>525</v>
+      </c>
+      <c r="D58" t="s">
+        <v>315</v>
+      </c>
+      <c r="E58" t="s">
+        <v>518</v>
+      </c>
+      <c r="I58">
+        <v>2100</v>
+      </c>
+      <c r="J58">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" t="s">
+        <v>525</v>
+      </c>
+      <c r="D59" t="s">
+        <v>315</v>
+      </c>
+      <c r="E59" t="s">
+        <v>518</v>
+      </c>
+      <c r="I59">
+        <v>5100</v>
+      </c>
+      <c r="J59">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s">
+        <v>525</v>
+      </c>
+      <c r="D60" t="s">
+        <v>315</v>
+      </c>
+      <c r="E60" t="s">
+        <v>518</v>
+      </c>
+      <c r="I60">
+        <v>11000</v>
+      </c>
+      <c r="J60">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" t="s">
+        <v>525</v>
+      </c>
+      <c r="D61" t="s">
+        <v>315</v>
+      </c>
+      <c r="E61" t="s">
+        <v>518</v>
+      </c>
+      <c r="I61">
+        <v>21000</v>
+      </c>
+      <c r="J61">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" t="s">
+        <v>525</v>
+      </c>
+      <c r="D62" t="s">
+        <v>315</v>
+      </c>
+      <c r="E62" t="s">
+        <v>518</v>
+      </c>
+      <c r="I62">
+        <v>41000</v>
+      </c>
+      <c r="J62">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s">
+        <v>525</v>
+      </c>
+      <c r="D63" t="s">
+        <v>315</v>
+      </c>
+      <c r="E63" t="s">
+        <v>518</v>
+      </c>
+      <c r="I63">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" t="s">
+        <v>525</v>
+      </c>
+      <c r="D64" t="s">
+        <v>316</v>
+      </c>
+      <c r="E64" t="s">
+        <v>518</v>
+      </c>
+      <c r="I64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" t="s">
+        <v>525</v>
+      </c>
+      <c r="D65" t="s">
+        <v>316</v>
+      </c>
+      <c r="E65" t="s">
+        <v>518</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" t="s">
+        <v>525</v>
+      </c>
+      <c r="D66" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" t="s">
+        <v>518</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" t="s">
+        <v>525</v>
+      </c>
+      <c r="D67" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" t="s">
+        <v>517</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" t="s">
+        <v>525</v>
+      </c>
+      <c r="D68" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" t="s">
+        <v>517</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" t="s">
+        <v>527</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
+        <v>527</v>
+      </c>
+      <c r="I70">
+        <v>155</v>
+      </c>
+      <c r="J70">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
+        <v>527</v>
+      </c>
+      <c r="I71">
+        <v>622</v>
+      </c>
+      <c r="J71">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>527</v>
+      </c>
+      <c r="I72">
+        <v>2488</v>
+      </c>
+      <c r="J72">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>527</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>527</v>
+      </c>
+      <c r="I74">
+        <v>50</v>
+      </c>
+      <c r="J74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" t="s">
+        <v>527</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" t="s">
+        <v>527</v>
+      </c>
+      <c r="I76">
+        <v>200</v>
+      </c>
+      <c r="J76">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" t="s">
+        <v>527</v>
+      </c>
+      <c r="I77">
+        <v>300</v>
+      </c>
+      <c r="J77">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" t="s">
+        <v>527</v>
+      </c>
+      <c r="I78">
+        <v>400</v>
+      </c>
+      <c r="J78">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" t="s">
+        <v>527</v>
+      </c>
+      <c r="I79">
+        <v>500</v>
+      </c>
+      <c r="J79">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" t="s">
+        <v>527</v>
+      </c>
+      <c r="I80">
+        <v>600</v>
+      </c>
+      <c r="J80">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" t="s">
+        <v>527</v>
+      </c>
+      <c r="I81">
+        <v>700</v>
+      </c>
+      <c r="J81">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" t="s">
+        <v>527</v>
+      </c>
+      <c r="I82">
+        <v>800</v>
+      </c>
+      <c r="J82">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" t="s">
+        <v>527</v>
+      </c>
+      <c r="I83">
+        <v>900</v>
+      </c>
+      <c r="J83">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" t="s">
+        <v>527</v>
+      </c>
+      <c r="I84">
+        <v>1000</v>
+      </c>
+      <c r="J84">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" t="s">
+        <v>527</v>
+      </c>
+      <c r="I85">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" t="s">
+        <v>528</v>
+      </c>
+      <c r="C86" t="s">
+        <v>297</v>
+      </c>
+      <c r="E86" t="s">
+        <v>321</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>325</v>
+      </c>
+      <c r="B87" t="s">
+        <v>528</v>
+      </c>
+      <c r="C87" t="s">
+        <v>297</v>
+      </c>
+      <c r="E87" t="s">
+        <v>321</v>
+      </c>
+      <c r="I87">
+        <v>50</v>
+      </c>
+      <c r="J87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>326</v>
+      </c>
+      <c r="B88" t="s">
+        <v>528</v>
+      </c>
+      <c r="C88" t="s">
+        <v>297</v>
+      </c>
+      <c r="E88" t="s">
+        <v>321</v>
+      </c>
+      <c r="I88">
+        <v>100</v>
+      </c>
+      <c r="J88">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" t="s">
+        <v>528</v>
+      </c>
+      <c r="C89" t="s">
+        <v>298</v>
+      </c>
+      <c r="E89" t="s">
+        <v>321</v>
+      </c>
+      <c r="I89">
+        <v>155</v>
+      </c>
+      <c r="J89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>327</v>
+      </c>
+      <c r="B90" t="s">
+        <v>528</v>
+      </c>
+      <c r="C90" t="s">
+        <v>298</v>
+      </c>
+      <c r="E90" t="s">
+        <v>321</v>
+      </c>
+      <c r="I90">
+        <v>200</v>
+      </c>
+      <c r="J90">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>328</v>
+      </c>
+      <c r="B91" t="s">
+        <v>528</v>
+      </c>
+      <c r="C91" t="s">
+        <v>298</v>
+      </c>
+      <c r="E91" t="s">
+        <v>321</v>
+      </c>
+      <c r="I91">
+        <v>300</v>
+      </c>
+      <c r="J91">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>329</v>
+      </c>
+      <c r="B92" t="s">
+        <v>528</v>
+      </c>
+      <c r="C92" t="s">
+        <v>298</v>
+      </c>
+      <c r="E92" t="s">
+        <v>321</v>
+      </c>
+      <c r="I92">
+        <v>400</v>
+      </c>
+      <c r="J92">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>330</v>
+      </c>
+      <c r="B93" t="s">
+        <v>528</v>
+      </c>
+      <c r="C93" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" t="s">
+        <v>321</v>
+      </c>
+      <c r="I93">
+        <v>500</v>
+      </c>
+      <c r="J93">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94" t="s">
+        <v>528</v>
+      </c>
+      <c r="C94" t="s">
+        <v>298</v>
+      </c>
+      <c r="E94" t="s">
+        <v>321</v>
+      </c>
+      <c r="I94">
+        <v>600</v>
+      </c>
+      <c r="J94">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>238</v>
+      </c>
+      <c r="B95" t="s">
+        <v>528</v>
+      </c>
+      <c r="C95" t="s">
+        <v>298</v>
+      </c>
+      <c r="E95" t="s">
+        <v>321</v>
+      </c>
+      <c r="I95">
+        <v>622</v>
+      </c>
+      <c r="J95">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>332</v>
+      </c>
+      <c r="B96" t="s">
+        <v>528</v>
+      </c>
+      <c r="C96" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" t="s">
+        <v>321</v>
+      </c>
+      <c r="I96">
+        <v>700</v>
+      </c>
+      <c r="J96">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>333</v>
+      </c>
+      <c r="B97" t="s">
+        <v>528</v>
+      </c>
+      <c r="C97" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" t="s">
+        <v>321</v>
+      </c>
+      <c r="I97">
+        <v>800</v>
+      </c>
+      <c r="J97">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>334</v>
+      </c>
+      <c r="B98" t="s">
+        <v>528</v>
+      </c>
+      <c r="C98" t="s">
+        <v>298</v>
+      </c>
+      <c r="E98" t="s">
+        <v>321</v>
+      </c>
+      <c r="I98">
+        <v>900</v>
+      </c>
+      <c r="J98">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>335</v>
+      </c>
+      <c r="B99" t="s">
+        <v>528</v>
+      </c>
+      <c r="C99" t="s">
+        <v>298</v>
+      </c>
+      <c r="E99" t="s">
+        <v>321</v>
+      </c>
+      <c r="I99">
+        <v>1000</v>
+      </c>
+      <c r="J99">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>239</v>
+      </c>
+      <c r="B100" t="s">
+        <v>528</v>
+      </c>
+      <c r="C100" t="s">
+        <v>298</v>
+      </c>
+      <c r="E100" t="s">
+        <v>321</v>
+      </c>
+      <c r="I100">
+        <v>2488</v>
+      </c>
+      <c r="J100">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" t="s">
+        <v>528</v>
+      </c>
+      <c r="C101" t="s">
+        <v>298</v>
+      </c>
+      <c r="E101" t="s">
+        <v>321</v>
+      </c>
+      <c r="I101">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="7"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D106" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" t="s">
+        <v>305</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D107" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" t="s">
+        <v>481</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D108" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" t="s">
+        <v>304</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D109" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" t="s">
+        <v>305</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D110" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" t="s">
+        <v>481</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D111" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" t="s">
+        <v>488</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D112" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" t="s">
+        <v>490</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D113" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" t="s">
+        <v>489</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D114" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D115" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D116" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D117" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D118" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D119" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D120" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D121" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3C228F-834E-438B-B848-AC8E533EF2AF}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6586,19 +10765,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
@@ -6606,7 +10785,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -6617,21 +10796,18 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="H3" t="s">
-        <v>410</v>
-      </c>
-      <c r="L3" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -6641,26 +10817,26 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="H8" t="s">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="L8" t="s">
         <v>1</v>
@@ -6668,50 +10844,50 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="H10" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="L10" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="H15" t="s">
         <v>1</v>
@@ -6719,7 +10895,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="H16" t="s">
         <v>2</v>
@@ -6727,34 +10903,34 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="H17" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="C19" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="H21" t="s">
         <v>1</v>
@@ -6762,7 +10938,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="H22" t="s">
         <v>2</v>
@@ -6770,23 +10946,23 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="H23" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C25" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -6796,13 +10972,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="H28" t="s">
         <v>1</v>
@@ -6810,7 +10986,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="H29" t="s">
         <v>2</v>
@@ -6818,20 +10994,20 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H30" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G32" s="1" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="H32" t="s">
         <v>1</v>
@@ -6839,45 +11015,45 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B33" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="H33" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="H34" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="H35" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H36" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="H38" t="s">
         <v>1</v>
@@ -6885,7 +11061,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="H39" t="s">
         <v>2</v>
@@ -6896,33 +11072,33 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="C43" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -6930,12 +11106,12 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -6945,7 +11121,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -6953,28 +11129,28 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -6982,7 +11158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F73618-6586-4A84-9871-6FE50C66AABE}">
   <dimension ref="A3:B12"/>
   <sheetViews>
@@ -6997,7 +11173,7 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7005,15 +11181,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7021,39 +11197,39 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7061,7 +11237,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7069,10 +11245,537 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE33CD2A-AAD0-41EF-9549-2687CBDEA9E8}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F9" t="s">
+        <v>461</v>
+      </c>
+      <c r="G9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F10" t="s">
+        <v>424</v>
+      </c>
+      <c r="G10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>461</v>
+      </c>
+      <c r="G16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>424</v>
+      </c>
+      <c r="G17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0041A19-4DA9-45E9-9B40-61873D744A14}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="L2" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" t="str">
+        <f>_xlfn.CONCAT($L$2,"/",LOWER(A3))</f>
+        <v>api/networkprovisioning/provision/createpstnsubscriber</v>
+      </c>
+      <c r="F3" t="str">
+        <f>_xlfn.CONCAT($M$2,"/",LOWER(A3))</f>
+        <v>api/networkprovisioning/generatecommand/createpstnsubscriber</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E6" si="0">_xlfn.CONCAT($L$2,"/",LOWER(A4))</f>
+        <v>api/networkprovisioning/provision/activatepstnsubscriber</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F6" si="1">_xlfn.CONCAT($M$2,"/",LOWER(A4))</f>
+        <v>api/networkprovisioning/generatecommand/activatepstnsubscriber</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>api/networkprovisioning/provision/createisdnsubscriber</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>api/networkprovisioning/generatecommand/createisdnsubscriber</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>api/networkprovisioning/provision/createmsnsubscriber</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>api/networkprovisioning/generatecommand/createmsnsubscriber</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7" si="2">_xlfn.CONCAT($L$2,"/",LOWER(A7))</f>
+        <v>api/networkprovisioning/provision/deletepstnsubscriber</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ref="F7" si="3">_xlfn.CONCAT($M$2,"/",LOWER(A7))</f>
+        <v>api/networkprovisioning/generatecommand/deletepstnsubscriber</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E17" si="4">_xlfn.CONCAT($L$2,"/",LOWER(A8))</f>
+        <v>api/networkprovisioning/provision/deleteisdnsubscriber</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ref="F8:F17" si="5">_xlfn.CONCAT($M$2,"/",LOWER(A8))</f>
+        <v>api/networkprovisioning/generatecommand/deleteisdnsubscriber</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="4"/>
+        <v>api/networkprovisioning/provision/deletemsnsubscriber</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="5"/>
+        <v>api/networkprovisioning/generatecommand/deletemsnsubscriber</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="4"/>
+        <v>api/networkprovisioning/provision/addclip</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="5"/>
+        <v>api/networkprovisioning/generatecommand/addclip</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="4"/>
+        <v>api/networkprovisioning/provision/deleteclip</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="5"/>
+        <v>api/networkprovisioning/generatecommand/deleteclip</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B12" t="s">
+        <v>457</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="4"/>
+        <v>api/networkprovisioning/provision/addclir</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="5"/>
+        <v>api/networkprovisioning/generatecommand/addclir</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="4"/>
+        <v>api/networkprovisioning/provision/deleteclir</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="5"/>
+        <v>api/networkprovisioning/generatecommand/deleteclir</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" t="s">
+        <v>457</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="4"/>
+        <v>api/networkprovisioning/provision/addcallwaiting</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="5"/>
+        <v>api/networkprovisioning/generatecommand/addcallwaiting</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" t="s">
+        <v>457</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="4"/>
+        <v>api/networkprovisioning/provision/deletecallwaiting</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="5"/>
+        <v>api/networkprovisioning/generatecommand/deletecallwaiting</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" t="s">
+        <v>457</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>api/networkprovisioning/provision/addcalldivert</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="5"/>
+        <v>api/networkprovisioning/generatecommand/addcalldivert</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>439</v>
+      </c>
+      <c r="B17" t="s">
+        <v>457</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="4"/>
+        <v>api/networkprovisioning/provision/deletecalldivert</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="5"/>
+        <v>api/networkprovisioning/generatecommand/deletecalldivert</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Retail/Documents/OSS-BSS/E2E Design.xlsx
+++ b/Retail/Documents/OSS-BSS/E2E Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\Retail\Documents\OSS-BSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CA6F90-D6A9-40CD-B03F-953454C7BDC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E383B10-3DFF-4030-B84D-687FEEB1B1C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{4F0E0A7E-CDA5-4DA7-A5B8-94683093D0E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4F0E0A7E-CDA5-4DA7-A5B8-94683093D0E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="651">
   <si>
     <t>ContractType</t>
   </si>
@@ -1344,15 +1344,6 @@
   </si>
   <si>
     <t>ParameterRecordType</t>
-  </si>
-  <si>
-    <t>NEType</t>
-  </si>
-  <si>
-    <t>NETypeProvisionHandler</t>
-  </si>
-  <si>
-    <t>NETypeID</t>
   </si>
   <si>
     <t>ProvisionActionID</t>
@@ -1650,9 +1641,6 @@
   </si>
   <si>
     <t>Service Code</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
   </si>
   <si>
     <t>Telephone Core</t>
@@ -2052,6 +2040,30 @@
   </si>
   <si>
     <t>Fix to International</t>
+  </si>
+  <si>
+    <t>ServiceKind</t>
+  </si>
+  <si>
+    <t>AddAbbreviatedDialing</t>
+  </si>
+  <si>
+    <t>Delete3PartyCalling</t>
+  </si>
+  <si>
+    <t>NetworkService</t>
+  </si>
+  <si>
+    <t>ContractNetworkService</t>
+  </si>
+  <si>
+    <t>NetworkElementType</t>
+  </si>
+  <si>
+    <t>NetworkElementTypeProvisionHandler</t>
+  </si>
+  <si>
+    <t>NetworkElementTypeID</t>
   </si>
 </sst>
 </file>
@@ -2436,15 +2448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2483E329-B3B0-424F-826D-489DA42297BA}">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.44140625" bestFit="1" customWidth="1"/>
@@ -2467,7 +2479,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2485,20 +2497,20 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C9" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2508,7 +2520,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2531,7 +2543,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -2546,18 +2558,18 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>503</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2566,48 +2578,48 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F21" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E22" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F22" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E23" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F23" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="E24" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F24" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -2616,37 +2628,34 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>606</v>
-      </c>
-      <c r="C27" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E27" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F27" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E28" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F28" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2655,187 +2664,168 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E29" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F29" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F30" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="E31" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F31" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="F31" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32"/>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F32" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33"/>
-      <c r="B33" t="s">
-        <v>615</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F33" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34"/>
-      <c r="B34" t="s">
-        <v>633</v>
-      </c>
-      <c r="C34" t="s">
-        <v>354</v>
-      </c>
       <c r="E34" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35"/>
-      <c r="B35" t="s">
-        <v>634</v>
-      </c>
-      <c r="C35" t="s">
-        <v>439</v>
-      </c>
       <c r="E35" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36"/>
-      <c r="B36" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37"/>
+        <v>641</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>605</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>606</v>
-      </c>
-      <c r="C40" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>578</v>
+        <v>629</v>
+      </c>
+      <c r="C41" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>630</v>
       </c>
       <c r="C42" t="s">
-        <v>610</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44"/>
-      <c r="B44" t="s">
-        <v>583</v>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>591</v>
-      </c>
+      <c r="A46"/>
       <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47"/>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>602</v>
+      </c>
+      <c r="C47" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48"/>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49"/>
       <c r="B49" t="s">
         <v>9</v>
       </c>
+      <c r="C49" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50"/>
       <c r="B50" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51"/>
       <c r="B51" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>6</v>
+        <v>587</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2848,557 +2838,557 @@
         <v>4</v>
       </c>
     </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>9</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B60" t="s">
-        <v>597</v>
-      </c>
-      <c r="C60" t="s">
-        <v>439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>594</v>
-      </c>
-      <c r="C61" t="s">
-        <v>596</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>593</v>
+      </c>
+      <c r="C67" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>590</v>
+      </c>
+      <c r="C68" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B72" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>51</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>48</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>550</v>
-      </c>
-      <c r="C88" t="s">
-        <v>354</v>
+        <v>609</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" t="s">
-        <v>589</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>603</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B92" t="s">
-        <v>613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>555</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>556</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>627</v>
+        <v>546</v>
       </c>
       <c r="C95" t="s">
         <v>354</v>
       </c>
     </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>585</v>
+      </c>
+    </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="B97" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>554</v>
+        <v>599</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>550</v>
-      </c>
-      <c r="C99" t="s">
-        <v>354</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>51</v>
+        <v>552</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>48</v>
+        <v>623</v>
+      </c>
+      <c r="C102" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>627</v>
-      </c>
-      <c r="C105" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>546</v>
+      </c>
+      <c r="C106" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="B107" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>13</v>
+        <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>578</v>
-      </c>
-      <c r="C110" t="s">
-        <v>585</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>554</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
+        <v>623</v>
+      </c>
+      <c r="C112" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>574</v>
+      </c>
+      <c r="C117" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="B123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>415</v>
+        <v>575</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>49</v>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>612</v>
-      </c>
       <c r="B133" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" t="s">
-        <v>614</v>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="B136" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>608</v>
+      </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="B142" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="B144" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>282</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="B151" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>554</v>
-      </c>
-      <c r="C154" t="s">
-        <v>354</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B156" t="s">
-        <v>357</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="B158" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C159" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>356</v>
+        <v>550</v>
+      </c>
+      <c r="C160" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B164" t="s">
         <v>1</v>
@@ -3406,101 +3396,103 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>360</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B169" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="B170" t="s">
-        <v>365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>364</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="B173" t="s">
-        <v>1</v>
+        <v>363</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>558</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>559</v>
+        <v>362</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>560</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B178" t="s">
-        <v>568</v>
+        <v>364</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="B179" t="s">
-        <v>570</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>569</v>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="B182" t="s">
-        <v>1</v>
+        <v>556</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
-        <v>563</v>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="B185" t="s">
-        <v>1</v>
+        <v>566</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -3510,7 +3502,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B188" t="s">
         <v>1</v>
@@ -3518,12 +3510,12 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>630</v>
+        <v>560</v>
       </c>
       <c r="B191" t="s">
         <v>1</v>
@@ -3531,60 +3523,86 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B193" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>562</v>
+      </c>
       <c r="B194" t="s">
-        <v>560</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B196" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>626</v>
+      </c>
       <c r="B197" t="s">
-        <v>295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>631</v>
+        <v>554</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>563</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="B201" t="s">
-        <v>1</v>
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>567</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -3596,8 +3614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D1D1B-A97F-4AD0-B5C8-AD97FA10D80C}">
   <dimension ref="A1:N295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5393,7 +5411,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -5404,28 +5422,28 @@
         <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G158" s="1" t="s">
+      <c r="I158" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="J158" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -5434,7 +5452,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B159" t="s">
         <v>54</v>
@@ -5457,7 +5475,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B160" t="s">
         <v>54</v>
@@ -5474,7 +5492,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B161" t="s">
         <v>54</v>
@@ -5491,7 +5509,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B162" t="s">
         <v>54</v>
@@ -5530,13 +5548,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B165" t="s">
         <v>54</v>
       </c>
       <c r="D165" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -5646,10 +5664,10 @@
         <v>54</v>
       </c>
       <c r="C175" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D175" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -5671,7 +5689,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B177" t="s">
         <v>54</v>
@@ -5679,7 +5697,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B178" t="s">
         <v>54</v>
@@ -5693,7 +5711,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B179" t="s">
         <v>132</v>
@@ -5701,7 +5719,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B180" t="s">
         <v>162</v>
@@ -5709,7 +5727,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B181" t="s">
         <v>233</v>
@@ -5717,7 +5735,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
@@ -5725,31 +5743,31 @@
         <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G185" s="1" t="s">
+      <c r="I185" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="J185" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -5761,7 +5779,7 @@
         <v>114</v>
       </c>
       <c r="B186" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C186" t="s">
         <v>58</v>
@@ -5775,7 +5793,7 @@
         <v>115</v>
       </c>
       <c r="B187" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C187" t="s">
         <v>58</v>
@@ -5789,7 +5807,7 @@
         <v>116</v>
       </c>
       <c r="B188" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C188" t="s">
         <v>58</v>
@@ -5803,7 +5821,7 @@
         <v>117</v>
       </c>
       <c r="B189" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C189" t="s">
         <v>58</v>
@@ -5817,7 +5835,7 @@
         <v>118</v>
       </c>
       <c r="B190" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C190" t="s">
         <v>58</v>
@@ -5831,7 +5849,7 @@
         <v>119</v>
       </c>
       <c r="B191" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C191" t="s">
         <v>58</v>
@@ -5845,7 +5863,7 @@
         <v>120</v>
       </c>
       <c r="B192" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C192" t="s">
         <v>58</v>
@@ -5859,7 +5877,7 @@
         <v>121</v>
       </c>
       <c r="B193" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C193" t="s">
         <v>59</v>
@@ -5873,7 +5891,7 @@
         <v>122</v>
       </c>
       <c r="B194" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C194" t="s">
         <v>58</v>
@@ -5887,7 +5905,7 @@
         <v>123</v>
       </c>
       <c r="B195" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C195" t="s">
         <v>58</v>
@@ -5901,7 +5919,7 @@
         <v>124</v>
       </c>
       <c r="B196" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C196" t="s">
         <v>58</v>
@@ -5915,7 +5933,7 @@
         <v>125</v>
       </c>
       <c r="B197" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C197" t="s">
         <v>58</v>
@@ -5929,7 +5947,7 @@
         <v>126</v>
       </c>
       <c r="B198" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C198" t="s">
         <v>58</v>
@@ -5943,7 +5961,7 @@
         <v>127</v>
       </c>
       <c r="B199" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C199" t="s">
         <v>60</v>
@@ -5957,7 +5975,7 @@
         <v>128</v>
       </c>
       <c r="B200" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C200" t="s">
         <v>60</v>
@@ -5971,7 +5989,7 @@
         <v>129</v>
       </c>
       <c r="B201" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C201" t="s">
         <v>60</v>
@@ -5985,7 +6003,7 @@
         <v>130</v>
       </c>
       <c r="B202" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C202" t="s">
         <v>60</v>
@@ -5999,7 +6017,7 @@
         <v>131</v>
       </c>
       <c r="B203" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C203" t="s">
         <v>60</v>
@@ -6013,7 +6031,7 @@
         <v>61</v>
       </c>
       <c r="B204" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C204" t="s">
         <v>58</v>
@@ -6027,7 +6045,7 @@
         <v>62</v>
       </c>
       <c r="B205" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C205" t="s">
         <v>58</v>
@@ -6041,7 +6059,7 @@
         <v>63</v>
       </c>
       <c r="B206" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C206" t="s">
         <v>59</v>
@@ -6055,7 +6073,7 @@
         <v>57</v>
       </c>
       <c r="B207" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C207" t="s">
         <v>60</v>
@@ -6069,7 +6087,7 @@
         <v>55</v>
       </c>
       <c r="B208" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C208" t="s">
         <v>58</v>
@@ -6083,7 +6101,7 @@
         <v>56</v>
       </c>
       <c r="B209" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C209" t="s">
         <v>59</v>
@@ -6097,7 +6115,7 @@
         <v>57</v>
       </c>
       <c r="B210" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C210" t="s">
         <v>60</v>
@@ -6111,7 +6129,7 @@
         <v>22</v>
       </c>
       <c r="B211" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" t="s">
@@ -6128,7 +6146,7 @@
         <v>23</v>
       </c>
       <c r="B212" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" t="s">
@@ -6145,7 +6163,7 @@
         <v>24</v>
       </c>
       <c r="B213" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" t="s">
@@ -6162,7 +6180,7 @@
         <v>133</v>
       </c>
       <c r="B214" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C214" t="s">
         <v>315</v>
@@ -6182,7 +6200,7 @@
         <v>134</v>
       </c>
       <c r="B215" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C215" t="s">
         <v>315</v>
@@ -6202,7 +6220,7 @@
         <v>135</v>
       </c>
       <c r="B216" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C216" t="s">
         <v>315</v>
@@ -6222,7 +6240,7 @@
         <v>136</v>
       </c>
       <c r="B217" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C217" t="s">
         <v>315</v>
@@ -6242,7 +6260,7 @@
         <v>137</v>
       </c>
       <c r="B218" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C218" t="s">
         <v>315</v>
@@ -6262,7 +6280,7 @@
         <v>138</v>
       </c>
       <c r="B219" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C219" t="s">
         <v>315</v>
@@ -6282,7 +6300,7 @@
         <v>139</v>
       </c>
       <c r="B220" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C220" t="s">
         <v>315</v>
@@ -6302,7 +6320,7 @@
         <v>147</v>
       </c>
       <c r="B221" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C221" t="s">
         <v>315</v>
@@ -6322,7 +6340,7 @@
         <v>148</v>
       </c>
       <c r="B222" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C222" t="s">
         <v>315</v>
@@ -6342,7 +6360,7 @@
         <v>149</v>
       </c>
       <c r="B223" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C223" t="s">
         <v>315</v>
@@ -6362,7 +6380,7 @@
         <v>150</v>
       </c>
       <c r="B224" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C224" t="s">
         <v>316</v>
@@ -6376,7 +6394,7 @@
         <v>150</v>
       </c>
       <c r="B225" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C225" t="s">
         <v>316</v>
@@ -6390,7 +6408,7 @@
         <v>167</v>
       </c>
       <c r="B226" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C226" t="s">
         <v>184</v>
@@ -6407,7 +6425,7 @@
         <v>168</v>
       </c>
       <c r="B227" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C227" t="s">
         <v>185</v>
@@ -6424,7 +6442,7 @@
         <v>169</v>
       </c>
       <c r="B228" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C228" t="s">
         <v>186</v>
@@ -6441,7 +6459,7 @@
         <v>170</v>
       </c>
       <c r="B229" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C229" t="s">
         <v>187</v>
@@ -6458,7 +6476,7 @@
         <v>171</v>
       </c>
       <c r="B230" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C230" t="s">
         <v>188</v>
@@ -6475,7 +6493,7 @@
         <v>172</v>
       </c>
       <c r="B231" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C231" t="s">
         <v>189</v>
@@ -6492,7 +6510,7 @@
         <v>173</v>
       </c>
       <c r="B232" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C232" t="s">
         <v>190</v>
@@ -6509,7 +6527,7 @@
         <v>174</v>
       </c>
       <c r="B233" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C233" t="s">
         <v>191</v>
@@ -6526,7 +6544,7 @@
         <v>175</v>
       </c>
       <c r="B234" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C234" t="s">
         <v>192</v>
@@ -6543,7 +6561,7 @@
         <v>176</v>
       </c>
       <c r="B235" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C235" t="s">
         <v>193</v>
@@ -6560,7 +6578,7 @@
         <v>177</v>
       </c>
       <c r="B236" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C236" t="s">
         <v>194</v>
@@ -6577,7 +6595,7 @@
         <v>178</v>
       </c>
       <c r="B237" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C237" t="s">
         <v>195</v>
@@ -6594,7 +6612,7 @@
         <v>179</v>
       </c>
       <c r="B238" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C238" t="s">
         <v>196</v>
@@ -6611,7 +6629,7 @@
         <v>180</v>
       </c>
       <c r="B239" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C239" t="s">
         <v>197</v>
@@ -6628,7 +6646,7 @@
         <v>181</v>
       </c>
       <c r="B240" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C240" t="s">
         <v>198</v>
@@ -6645,7 +6663,7 @@
         <v>182</v>
       </c>
       <c r="B241" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C241" t="s">
         <v>199</v>
@@ -6662,7 +6680,7 @@
         <v>183</v>
       </c>
       <c r="B242" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C242" t="s">
         <v>200</v>
@@ -6679,7 +6697,7 @@
         <v>234</v>
       </c>
       <c r="B243" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C243" t="s">
         <v>332</v>
@@ -6696,7 +6714,7 @@
         <v>321</v>
       </c>
       <c r="B244" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C244" t="s">
         <v>332</v>
@@ -6713,7 +6731,7 @@
         <v>322</v>
       </c>
       <c r="B245" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C245" t="s">
         <v>332</v>
@@ -6730,7 +6748,7 @@
         <v>235</v>
       </c>
       <c r="B246" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C246" t="s">
         <v>332</v>
@@ -6747,7 +6765,7 @@
         <v>323</v>
       </c>
       <c r="B247" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C247" t="s">
         <v>332</v>
@@ -6764,7 +6782,7 @@
         <v>324</v>
       </c>
       <c r="B248" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C248" t="s">
         <v>332</v>
@@ -6781,7 +6799,7 @@
         <v>325</v>
       </c>
       <c r="B249" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C249" t="s">
         <v>332</v>
@@ -6798,7 +6816,7 @@
         <v>326</v>
       </c>
       <c r="B250" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C250" t="s">
         <v>332</v>
@@ -6815,7 +6833,7 @@
         <v>327</v>
       </c>
       <c r="B251" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C251" t="s">
         <v>332</v>
@@ -6832,7 +6850,7 @@
         <v>236</v>
       </c>
       <c r="B252" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C252" t="s">
         <v>332</v>
@@ -6849,7 +6867,7 @@
         <v>328</v>
       </c>
       <c r="B253" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C253" t="s">
         <v>332</v>
@@ -6866,7 +6884,7 @@
         <v>329</v>
       </c>
       <c r="B254" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C254" t="s">
         <v>332</v>
@@ -6883,7 +6901,7 @@
         <v>330</v>
       </c>
       <c r="B255" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C255" t="s">
         <v>332</v>
@@ -6900,7 +6918,7 @@
         <v>331</v>
       </c>
       <c r="B256" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C256" t="s">
         <v>332</v>
@@ -6917,7 +6935,7 @@
         <v>237</v>
       </c>
       <c r="B257" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C257" t="s">
         <v>332</v>
@@ -6934,7 +6952,7 @@
         <v>238</v>
       </c>
       <c r="B258" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C258" t="s">
         <v>332</v>
@@ -7181,7 +7199,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7191,7 +7209,7 @@
         <v>2</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>10</v>
@@ -7199,15 +7217,15 @@
     </row>
     <row r="285" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -7215,27 +7233,27 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B290">
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -7243,13 +7261,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B291">
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -7257,13 +7275,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B292">
         <v>20</v>
       </c>
       <c r="C292" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D292">
         <v>3</v>
@@ -7271,13 +7289,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B293">
         <v>30</v>
       </c>
       <c r="C293" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D293">
         <v>4</v>
@@ -7285,13 +7303,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B294">
         <v>60</v>
       </c>
       <c r="C294" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D294">
         <v>5</v>
@@ -7299,13 +7317,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B295">
         <v>90</v>
       </c>
       <c r="C295" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D295">
         <v>6</v>
@@ -7455,7 +7473,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7465,18 +7483,18 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7484,7 +7502,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>299</v>
@@ -7493,10 +7511,10 @@
         <v>292</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7504,7 +7522,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -7521,7 +7539,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -7538,7 +7556,7 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -7555,7 +7573,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -7572,7 +7590,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -7589,7 +7607,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -7606,7 +7624,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -7623,7 +7641,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -7640,7 +7658,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -7660,23 +7678,23 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7687,10 +7705,10 @@
         <v>300</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D21" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7712,13 +7730,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D23" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -7729,10 +7747,10 @@
         <v>300</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7754,13 +7772,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D26" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7768,13 +7786,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" t="s">
         <v>482</v>
-      </c>
-      <c r="D27" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7782,13 +7800,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D28" t="s">
         <v>483</v>
-      </c>
-      <c r="D28" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7796,13 +7814,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D29" t="s">
         <v>484</v>
-      </c>
-      <c r="D29" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -7827,10 +7845,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D31" t="s">
         <v>489</v>
-      </c>
-      <c r="D31" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -7841,10 +7859,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -7855,10 +7873,10 @@
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D33" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -7869,10 +7887,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D34" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -7883,10 +7901,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D35" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -7897,10 +7915,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -7909,14 +7927,14 @@
     <row r="38" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>299</v>
@@ -8079,12 +8097,12 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s">
         <v>109</v>
@@ -9877,12 +9895,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5AABEA-1065-4C29-9918-AD38D19378B7}">
-  <dimension ref="A3:P129"/>
+  <dimension ref="A3:P138"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A25" sqref="A25"/>
-      <selection pane="topRight" activeCell="B114" sqref="B114"/>
+      <selection pane="topRight" activeCell="C134" sqref="C134:C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9905,7 +9923,7 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -9916,25 +9934,25 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>523</v>
+        <v>643</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -9945,106 +9963,106 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -10055,22 +10073,22 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -10081,22 +10099,22 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -10107,22 +10125,22 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -10133,22 +10151,22 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -10159,22 +10177,22 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -10185,22 +10203,22 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -10211,22 +10229,22 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -10237,22 +10255,22 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D16" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -10263,22 +10281,22 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D17" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10289,22 +10307,22 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D18" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -10315,145 +10333,145 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D19" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D20" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B22" t="s">
         <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D22" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E22" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F22" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H22" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B23" t="s">
         <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B24" t="s">
         <v>233</v>
       </c>
       <c r="C24" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D24" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E24" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F24" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G24" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H24" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -10461,13 +10479,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>309</v>
@@ -10488,7 +10506,7 @@
         <v>308</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L28" s="1"/>
     </row>
@@ -10497,13 +10515,13 @@
         <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C29" t="s">
         <v>293</v>
       </c>
       <c r="E29" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -10517,13 +10535,13 @@
         <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C30" t="s">
         <v>293</v>
       </c>
       <c r="E30" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F30">
         <v>4</v>
@@ -10540,13 +10558,13 @@
         <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C31" t="s">
         <v>293</v>
       </c>
       <c r="E31" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -10560,13 +10578,13 @@
         <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C32" t="s">
         <v>293</v>
       </c>
       <c r="E32" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G32" t="s">
         <v>297</v>
@@ -10580,13 +10598,13 @@
         <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C33" t="s">
         <v>293</v>
       </c>
       <c r="E33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G33" t="s">
         <v>297</v>
@@ -10600,13 +10618,13 @@
         <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C34" t="s">
         <v>293</v>
       </c>
       <c r="E34" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G34" t="s">
         <v>297</v>
@@ -10620,13 +10638,13 @@
         <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C35" t="s">
         <v>293</v>
       </c>
       <c r="E35" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G35" t="s">
         <v>297</v>
@@ -10640,13 +10658,13 @@
         <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C36" t="s">
         <v>293</v>
       </c>
       <c r="E36" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -10654,13 +10672,13 @@
         <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C37" t="s">
         <v>293</v>
       </c>
       <c r="E37" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -10674,13 +10692,13 @@
         <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C38" t="s">
         <v>293</v>
       </c>
       <c r="E38" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -10694,13 +10712,13 @@
         <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C39" t="s">
         <v>293</v>
       </c>
       <c r="E39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -10714,13 +10732,13 @@
         <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C40" t="s">
         <v>293</v>
       </c>
       <c r="E40" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -10734,13 +10752,13 @@
         <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C41" t="s">
         <v>293</v>
       </c>
       <c r="E41" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -10754,13 +10772,13 @@
         <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C42" t="s">
         <v>294</v>
       </c>
       <c r="E42" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F42">
         <v>50</v>
@@ -10774,13 +10792,13 @@
         <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C43" t="s">
         <v>294</v>
       </c>
       <c r="E43" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F43">
         <v>50</v>
@@ -10794,13 +10812,13 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C44" t="s">
         <v>294</v>
       </c>
       <c r="E44" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F44">
         <v>50</v>
@@ -10814,13 +10832,13 @@
         <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C45" t="s">
         <v>294</v>
       </c>
       <c r="E45" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F45">
         <v>50</v>
@@ -10834,13 +10852,13 @@
         <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C46" t="s">
         <v>294</v>
       </c>
       <c r="E46" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F46">
         <v>50</v>
@@ -10854,13 +10872,13 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C47" t="s">
         <v>293</v>
       </c>
       <c r="E47" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -10874,13 +10892,13 @@
         <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C48" t="s">
         <v>293</v>
       </c>
       <c r="E48" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G48" t="s">
         <v>297</v>
@@ -10891,13 +10909,13 @@
         <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="E49" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -10905,13 +10923,13 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C50" t="s">
         <v>294</v>
       </c>
       <c r="E50" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F50">
         <v>50</v>
@@ -10922,13 +10940,13 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C51" t="s">
         <v>293</v>
       </c>
       <c r="E51" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -10936,13 +10954,13 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="E52" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -10950,13 +10968,13 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C53" t="s">
         <v>294</v>
       </c>
       <c r="E53" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -10964,12 +10982,12 @@
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F54" s="1"/>
       <c r="H54" s="1"/>
@@ -10985,12 +11003,12 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F55" s="1"/>
       <c r="H55" s="1"/>
@@ -11006,12 +11024,12 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F56" s="1"/>
       <c r="H56" s="1"/>
@@ -11027,13 +11045,13 @@
         <v>133</v>
       </c>
       <c r="B57" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D57" t="s">
         <v>311</v>
       </c>
       <c r="E57" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I57">
         <v>100</v>
@@ -11047,13 +11065,13 @@
         <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D58" t="s">
         <v>311</v>
       </c>
       <c r="E58" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I58">
         <v>2100</v>
@@ -11067,13 +11085,13 @@
         <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D59" t="s">
         <v>311</v>
       </c>
       <c r="E59" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I59">
         <v>5100</v>
@@ -11087,13 +11105,13 @@
         <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D60" t="s">
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I60">
         <v>11000</v>
@@ -11107,13 +11125,13 @@
         <v>137</v>
       </c>
       <c r="B61" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D61" t="s">
         <v>311</v>
       </c>
       <c r="E61" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I61">
         <v>21000</v>
@@ -11127,13 +11145,13 @@
         <v>138</v>
       </c>
       <c r="B62" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D62" t="s">
         <v>311</v>
       </c>
       <c r="E62" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I62">
         <v>41000</v>
@@ -11147,13 +11165,13 @@
         <v>139</v>
       </c>
       <c r="B63" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D63" t="s">
         <v>311</v>
       </c>
       <c r="E63" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I63">
         <v>61000</v>
@@ -11164,13 +11182,13 @@
         <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D64" t="s">
         <v>312</v>
       </c>
       <c r="E64" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I64">
         <v>50</v>
@@ -11181,13 +11199,13 @@
         <v>148</v>
       </c>
       <c r="B65" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D65" t="s">
         <v>312</v>
       </c>
       <c r="E65" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I65">
         <v>10</v>
@@ -11201,13 +11219,13 @@
         <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D66" t="s">
         <v>313</v>
       </c>
       <c r="E66" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I66">
         <v>10</v>
@@ -11218,13 +11236,13 @@
         <v>150</v>
       </c>
       <c r="B67" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D67" t="s">
         <v>314</v>
       </c>
       <c r="E67" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J67">
         <v>10</v>
@@ -11235,13 +11253,13 @@
         <v>150</v>
       </c>
       <c r="B68" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D68" t="s">
         <v>313</v>
       </c>
       <c r="E68" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J68">
         <v>10</v>
@@ -11252,7 +11270,7 @@
         <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -11266,7 +11284,7 @@
         <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I70">
         <v>155</v>
@@ -11280,7 +11298,7 @@
         <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I71">
         <v>622</v>
@@ -11294,7 +11312,7 @@
         <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I72">
         <v>2488</v>
@@ -11308,7 +11326,7 @@
         <v>171</v>
       </c>
       <c r="B73" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -11322,7 +11340,7 @@
         <v>172</v>
       </c>
       <c r="B74" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -11336,7 +11354,7 @@
         <v>173</v>
       </c>
       <c r="B75" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I75">
         <v>100</v>
@@ -11350,7 +11368,7 @@
         <v>174</v>
       </c>
       <c r="B76" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I76">
         <v>200</v>
@@ -11364,7 +11382,7 @@
         <v>175</v>
       </c>
       <c r="B77" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I77">
         <v>300</v>
@@ -11378,7 +11396,7 @@
         <v>176</v>
       </c>
       <c r="B78" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I78">
         <v>400</v>
@@ -11392,7 +11410,7 @@
         <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I79">
         <v>500</v>
@@ -11406,7 +11424,7 @@
         <v>178</v>
       </c>
       <c r="B80" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I80">
         <v>600</v>
@@ -11420,7 +11438,7 @@
         <v>179</v>
       </c>
       <c r="B81" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I81">
         <v>700</v>
@@ -11434,7 +11452,7 @@
         <v>180</v>
       </c>
       <c r="B82" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I82">
         <v>800</v>
@@ -11448,7 +11466,7 @@
         <v>181</v>
       </c>
       <c r="B83" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I83">
         <v>900</v>
@@ -11462,7 +11480,7 @@
         <v>182</v>
       </c>
       <c r="B84" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I84">
         <v>1000</v>
@@ -11476,7 +11494,7 @@
         <v>183</v>
       </c>
       <c r="B85" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I85">
         <v>10000</v>
@@ -11487,7 +11505,7 @@
         <v>234</v>
       </c>
       <c r="B86" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C86" t="s">
         <v>293</v>
@@ -11507,7 +11525,7 @@
         <v>321</v>
       </c>
       <c r="B87" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C87" t="s">
         <v>293</v>
@@ -11527,7 +11545,7 @@
         <v>322</v>
       </c>
       <c r="B88" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C88" t="s">
         <v>293</v>
@@ -11547,7 +11565,7 @@
         <v>235</v>
       </c>
       <c r="B89" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C89" t="s">
         <v>294</v>
@@ -11567,7 +11585,7 @@
         <v>323</v>
       </c>
       <c r="B90" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C90" t="s">
         <v>294</v>
@@ -11587,7 +11605,7 @@
         <v>324</v>
       </c>
       <c r="B91" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C91" t="s">
         <v>294</v>
@@ -11607,7 +11625,7 @@
         <v>325</v>
       </c>
       <c r="B92" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C92" t="s">
         <v>294</v>
@@ -11627,7 +11645,7 @@
         <v>326</v>
       </c>
       <c r="B93" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C93" t="s">
         <v>294</v>
@@ -11647,7 +11665,7 @@
         <v>327</v>
       </c>
       <c r="B94" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C94" t="s">
         <v>294</v>
@@ -11667,7 +11685,7 @@
         <v>236</v>
       </c>
       <c r="B95" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C95" t="s">
         <v>294</v>
@@ -11687,7 +11705,7 @@
         <v>328</v>
       </c>
       <c r="B96" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C96" t="s">
         <v>294</v>
@@ -11707,7 +11725,7 @@
         <v>329</v>
       </c>
       <c r="B97" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C97" t="s">
         <v>294</v>
@@ -11727,7 +11745,7 @@
         <v>330</v>
       </c>
       <c r="B98" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C98" t="s">
         <v>294</v>
@@ -11747,7 +11765,7 @@
         <v>331</v>
       </c>
       <c r="B99" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C99" t="s">
         <v>294</v>
@@ -11767,7 +11785,7 @@
         <v>237</v>
       </c>
       <c r="B100" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C100" t="s">
         <v>294</v>
@@ -11787,7 +11805,7 @@
         <v>238</v>
       </c>
       <c r="B101" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C101" t="s">
         <v>294</v>
@@ -11801,23 +11819,23 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="7"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -11828,10 +11846,10 @@
         <v>300</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D106" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -11853,13 +11871,13 @@
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D108" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -11870,10 +11888,10 @@
         <v>300</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D109" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -11895,13 +11913,13 @@
         <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D111" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -11909,13 +11927,13 @@
         <v>26</v>
       </c>
       <c r="B112" t="s">
+        <v>476</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" t="s">
         <v>482</v>
-      </c>
-      <c r="D112" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -11923,13 +11941,13 @@
         <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D113" t="s">
         <v>483</v>
-      </c>
-      <c r="D113" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -11937,13 +11955,13 @@
         <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D114" t="s">
         <v>484</v>
-      </c>
-      <c r="D114" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -11968,10 +11986,10 @@
         <v>28</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D116" t="s">
         <v>489</v>
-      </c>
-      <c r="D116" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -11982,10 +12000,10 @@
         <v>29</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>488</v>
+        <v>644</v>
       </c>
       <c r="D117" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -11996,10 +12014,10 @@
         <v>30</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D118" t="s">
-        <v>495</v>
+        <v>645</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -12010,10 +12028,10 @@
         <v>31</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D119" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -12024,10 +12042,10 @@
         <v>33</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D120" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -12038,15 +12056,15 @@
         <v>32</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D121" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B124" s="1"/>
     </row>
@@ -12055,20 +12073,26 @@
         <v>11</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>545</v>
+        <v>13</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
-      <c r="B126" t="s">
-        <v>541</v>
-      </c>
-      <c r="C126">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>537</v>
+      </c>
+      <c r="D126">
         <v>1</v>
       </c>
     </row>
@@ -12076,10 +12100,13 @@
       <c r="A127">
         <v>2</v>
       </c>
-      <c r="B127" t="s">
-        <v>546</v>
-      </c>
-      <c r="C127">
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>542</v>
+      </c>
+      <c r="D127">
         <v>2</v>
       </c>
     </row>
@@ -12087,22 +12114,82 @@
       <c r="A128">
         <v>2</v>
       </c>
-      <c r="B128" t="s">
-        <v>548</v>
-      </c>
-      <c r="C128">
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>544</v>
+      </c>
+      <c r="D128">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3</v>
       </c>
-      <c r="B129" t="s">
-        <v>549</v>
-      </c>
-      <c r="C129">
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>545</v>
+      </c>
+      <c r="D129">
         <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -12115,7 +12202,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G38" sqref="G38:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12142,7 +12229,7 @@
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
@@ -12201,7 +12288,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L8" t="s">
         <v>1</v>
@@ -12226,7 +12313,7 @@
         <v>411</v>
       </c>
       <c r="L10" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -12623,7 +12710,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12646,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>435</v>
+        <v>648</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -12675,7 +12762,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
-        <v>436</v>
+        <v>649</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -12689,7 +12776,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>437</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -12697,34 +12784,34 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F10" t="s">
         <v>417</v>
       </c>
       <c r="G10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
@@ -12737,10 +12824,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
@@ -12748,7 +12835,7 @@
         <v>417</v>
       </c>
       <c r="G17" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -12760,8 +12847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0041A19-4DA9-45E9-9B40-61873D744A14}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12791,22 +12878,22 @@
         <v>434</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="L2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
@@ -12814,7 +12901,7 @@
         <v>418</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E3" t="str">
         <f>_xlfn.CONCAT($L$2,"/",LOWER(A3))</f>
@@ -12825,10 +12912,10 @@
         <v>api/networkprovisioning/generatecommand/createpstnsubscriber</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -12836,7 +12923,7 @@
         <v>419</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E6" si="0">_xlfn.CONCAT($L$2,"/",LOWER(A4))</f>
@@ -12847,10 +12934,10 @@
         <v>api/networkprovisioning/generatecommand/activatepstnsubscriber</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
@@ -12858,7 +12945,7 @@
         <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -12869,10 +12956,10 @@
         <v>api/networkprovisioning/generatecommand/createisdnsubscriber</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
@@ -12880,7 +12967,7 @@
         <v>421</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -12891,10 +12978,10 @@
         <v>api/networkprovisioning/generatecommand/createmsnsubscriber</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -12902,7 +12989,7 @@
         <v>422</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ref="E7" si="2">_xlfn.CONCAT($L$2,"/",LOWER(A7))</f>
@@ -12913,10 +13000,10 @@
         <v>api/networkprovisioning/generatecommand/deletepstnsubscriber</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -12924,7 +13011,7 @@
         <v>423</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ref="E8:E17" si="4">_xlfn.CONCAT($L$2,"/",LOWER(A8))</f>
@@ -12935,10 +13022,10 @@
         <v>api/networkprovisioning/generatecommand/deleteisdnsubscriber</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -12946,7 +13033,7 @@
         <v>424</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="4"/>
@@ -12957,10 +13044,10 @@
         <v>api/networkprovisioning/generatecommand/deletemsnsubscriber</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -12968,7 +13055,7 @@
         <v>425</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="4"/>
@@ -12979,10 +13066,10 @@
         <v>api/networkprovisioning/generatecommand/addclip</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -12990,7 +13077,7 @@
         <v>426</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="4"/>
@@ -13001,10 +13088,10 @@
         <v>api/networkprovisioning/generatecommand/deleteclip</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -13012,7 +13099,7 @@
         <v>427</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="4"/>
@@ -13023,10 +13110,10 @@
         <v>api/networkprovisioning/generatecommand/addclir</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -13034,7 +13121,7 @@
         <v>428</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="4"/>
@@ -13045,10 +13132,10 @@
         <v>api/networkprovisioning/generatecommand/deleteclir</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -13056,7 +13143,7 @@
         <v>429</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="4"/>
@@ -13067,10 +13154,10 @@
         <v>api/networkprovisioning/generatecommand/addcallwaiting</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -13078,7 +13165,7 @@
         <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="4"/>
@@ -13089,10 +13176,10 @@
         <v>api/networkprovisioning/generatecommand/deletecallwaiting</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -13100,7 +13187,7 @@
         <v>431</v>
       </c>
       <c r="B16" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="4"/>
@@ -13111,10 +13198,10 @@
         <v>api/networkprovisioning/generatecommand/addcalldivert</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -13122,7 +13209,7 @@
         <v>432</v>
       </c>
       <c r="B17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="4"/>
@@ -13133,10 +13220,10 @@
         <v>api/networkprovisioning/generatecommand/deletecalldivert</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Retail/Documents/OSS-BSS/E2E Design.xlsx
+++ b/Retail/Documents/OSS-BSS/E2E Design.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\Retail\Documents\OSS-BSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E383B10-3DFF-4030-B84D-687FEEB1B1C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C2DC35-E8B7-4B24-A7E3-59CF50890CBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4F0E0A7E-CDA5-4DA7-A5B8-94683093D0E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="1" r:id="rId1"/>
     <sheet name="Sample Billing" sheetId="3" r:id="rId2"/>
-    <sheet name="CRM" sheetId="2" r:id="rId3"/>
-    <sheet name="Sample CRM" sheetId="4" r:id="rId4"/>
-    <sheet name="Sample CRM 2" sheetId="9" r:id="rId5"/>
-    <sheet name="Inventory" sheetId="6" r:id="rId6"/>
-    <sheet name="Sample Inventory" sheetId="5" r:id="rId7"/>
-    <sheet name="Provisioning" sheetId="7" r:id="rId8"/>
-    <sheet name="Sample Provisioning" sheetId="8" r:id="rId9"/>
+    <sheet name="Usage &amp; Bundling" sheetId="10" r:id="rId3"/>
+    <sheet name="CRM" sheetId="2" r:id="rId4"/>
+    <sheet name="Sample CRM" sheetId="4" r:id="rId5"/>
+    <sheet name="Sample CRM 2" sheetId="9" r:id="rId6"/>
+    <sheet name="Inventory" sheetId="6" r:id="rId7"/>
+    <sheet name="Sample Inventory" sheetId="5" r:id="rId8"/>
+    <sheet name="Provisioning" sheetId="7" r:id="rId9"/>
+    <sheet name="Sample Provisioning" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="677">
   <si>
     <t>ContractType</t>
   </si>
@@ -1355,16 +1356,7 @@
     <t>ProvisionHandlerTemplate</t>
   </si>
   <si>
-    <t>same handler class as NETypeProvisionHandler</t>
-  </si>
-  <si>
     <t>NodeModelSupportedService</t>
-  </si>
-  <si>
-    <t>api/networkprovisioning/provision</t>
-  </si>
-  <si>
-    <t>api/networkprovisioning/generatecommand</t>
   </si>
   <si>
     <t>Provisioning API</t>
@@ -2042,9 +2034,6 @@
     <t>Fix to International</t>
   </si>
   <si>
-    <t>ServiceKind</t>
-  </si>
-  <si>
     <t>AddAbbreviatedDialing</t>
   </si>
   <si>
@@ -2064,6 +2053,96 @@
   </si>
   <si>
     <t>NetworkElementTypeID</t>
+  </si>
+  <si>
+    <t>api/netprov/provision</t>
+  </si>
+  <si>
+    <t>api/netprov/generatecommand</t>
+  </si>
+  <si>
+    <t>same handler class as NetworkElementTypeProvisionHandler</t>
+  </si>
+  <si>
+    <t>VoiceInternationalRate</t>
+  </si>
+  <si>
+    <t>VoiceOnNetRate</t>
+  </si>
+  <si>
+    <t>VoiceOffNetRate</t>
+  </si>
+  <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t>50 GB / 100 Min</t>
+  </si>
+  <si>
+    <t>100 GB / 200 Min</t>
+  </si>
+  <si>
+    <t>BundleItem</t>
+  </si>
+  <si>
+    <t>BundleID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Internet Package</t>
+  </si>
+  <si>
+    <t>Fix Calls</t>
+  </si>
+  <si>
+    <t>Mobile Calls</t>
+  </si>
+  <si>
+    <t>NbOfGB</t>
+  </si>
+  <si>
+    <t>NbOfMin</t>
+  </si>
+  <si>
+    <t>Preferred Number</t>
+  </si>
+  <si>
+    <t>NumberOfMinutesFixed</t>
+  </si>
+  <si>
+    <t>NumberOfMinutesMobile</t>
+  </si>
+  <si>
+    <t>Line Subscription Recurring Bundle</t>
+  </si>
+  <si>
+    <t>Line Subscription One Time Bundle</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>2W 20 GB / 60 Min</t>
+  </si>
+  <si>
+    <t>1W 10 GB / 30 Min</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>ServiceCategory</t>
+  </si>
+  <si>
+    <t>ServiceCategoryID</t>
+  </si>
+  <si>
+    <t>ContractServiceCategory</t>
   </si>
 </sst>
 </file>
@@ -2448,10 +2527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2483E329-B3B0-424F-826D-489DA42297BA}">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2479,7 +2558,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2497,20 +2576,20 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C9" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2520,56 +2599,52 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>500</v>
+        <v>676</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13"/>
       <c r="B13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15"/>
+      <c r="A15" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>501</v>
-      </c>
+      <c r="A16"/>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>601</v>
-      </c>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>620</v>
+        <v>498</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2577,303 +2652,308 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>612</v>
-      </c>
-      <c r="F21" t="s">
-        <v>612</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>611</v>
-      </c>
-      <c r="E22" t="s">
-        <v>614</v>
-      </c>
-      <c r="F22" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-      <c r="B23" t="s">
-        <v>622</v>
-      </c>
-      <c r="E23" t="s">
-        <v>613</v>
-      </c>
-      <c r="F23" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-      <c r="E24" t="s">
-        <v>615</v>
-      </c>
-      <c r="F24" t="s">
-        <v>621</v>
+      <c r="A24" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>600</v>
-      </c>
+      <c r="A25"/>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>609</v>
+      </c>
+      <c r="F25" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>601</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
+      </c>
+      <c r="E26" t="s">
+        <v>611</v>
+      </c>
+      <c r="F26" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="E27" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F27" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28"/>
-      <c r="B28" t="s">
-        <v>623</v>
-      </c>
       <c r="E28" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F28" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29"/>
+      <c r="A29" s="1" t="s">
+        <v>597</v>
+      </c>
       <c r="B29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>598</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31" t="s">
+        <v>599</v>
+      </c>
+      <c r="E31" t="s">
+        <v>613</v>
+      </c>
+      <c r="F31" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32" t="s">
+        <v>620</v>
+      </c>
+      <c r="E32" t="s">
+        <v>614</v>
+      </c>
+      <c r="F32" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C29" t="s">
-        <v>605</v>
-      </c>
-      <c r="E29" t="s">
-        <v>618</v>
-      </c>
-      <c r="F29" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E30" t="s">
-        <v>619</v>
-      </c>
-      <c r="F30" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31"/>
-      <c r="E31" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F31" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32"/>
-      <c r="E32" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="F32" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33"/>
-      <c r="E33" s="3" t="s">
-        <v>637</v>
+      <c r="C33" t="s">
+        <v>602</v>
+      </c>
+      <c r="E33" t="s">
+        <v>615</v>
       </c>
       <c r="F33" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+      <c r="F34" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35"/>
-      <c r="E35" t="s">
-        <v>641</v>
+      <c r="E35" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F35" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="E36" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F36" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="E37" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F37" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3"/>
+      <c r="E38" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39"/>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40"/>
-      <c r="B40" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41"/>
-      <c r="B41" t="s">
-        <v>629</v>
-      </c>
-      <c r="C41" t="s">
-        <v>354</v>
+      <c r="E39" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42"/>
+      <c r="A42" s="1" t="s">
+        <v>604</v>
+      </c>
       <c r="B42" t="s">
-        <v>630</v>
-      </c>
-      <c r="C42" t="s">
-        <v>436</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>631</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44"/>
+      <c r="B44" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>604</v>
-      </c>
+      <c r="A45"/>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>626</v>
+      </c>
+      <c r="C45" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>601</v>
+        <v>627</v>
+      </c>
+      <c r="C46" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>602</v>
-      </c>
-      <c r="C47" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48"/>
-      <c r="B48" t="s">
-        <v>574</v>
-      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49"/>
+      <c r="A49" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>579</v>
+        <v>599</v>
+      </c>
+      <c r="C51" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52"/>
+      <c r="B52" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>587</v>
-      </c>
+      <c r="A53"/>
       <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54"/>
+      <c r="B54" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55"/>
+      <c r="B55" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B57" t="s">
         <v>1</v>
       </c>
-      <c r="C53" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>578</v>
+      <c r="C57" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>579</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>2</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>4</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -2881,732 +2961,1139 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>593</v>
-      </c>
-      <c r="C67" t="s">
-        <v>436</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B68" t="s">
-        <v>590</v>
-      </c>
-      <c r="C68" t="s">
-        <v>592</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>582</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>583</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>590</v>
+      </c>
+      <c r="C71" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>587</v>
+      </c>
+      <c r="C72" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>12</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>624</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>599</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>553</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B96" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>546</v>
-      </c>
-      <c r="C95" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>599</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>609</v>
+        <v>543</v>
+      </c>
+      <c r="C99" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>551</v>
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>552</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>623</v>
-      </c>
-      <c r="C102" t="s">
-        <v>354</v>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="B104" t="s">
-        <v>1</v>
+        <v>548</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>546</v>
+        <v>620</v>
       </c>
       <c r="C106" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" t="s">
-        <v>585</v>
-      </c>
-    </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="B108" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>48</v>
+        <v>543</v>
+      </c>
+      <c r="C110" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>623</v>
-      </c>
-      <c r="C112" t="s">
-        <v>354</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>634</v>
-      </c>
       <c r="B114" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" t="s">
-        <v>598</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>550</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>574</v>
-      </c>
-      <c r="C117" t="s">
-        <v>581</v>
+        <v>620</v>
+      </c>
+      <c r="C116" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>631</v>
+      </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>575</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>584</v>
+        <v>571</v>
+      </c>
+      <c r="C121" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>588</v>
-      </c>
       <c r="B123" t="s">
-        <v>1</v>
+        <v>583</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>14</v>
+        <v>572</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>586</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>575</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="B132" t="s">
-        <v>1</v>
+        <v>583</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>14</v>
+        <v>572</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>415</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="B139" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B142" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B143" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B145" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B146" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B147" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B148" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B154" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B151" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B152" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B153" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B154" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B155" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B161" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B158" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B159" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
         <v>14</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C163" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B160" t="s">
-        <v>550</v>
-      </c>
-      <c r="C160" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>547</v>
+      </c>
+      <c r="C164" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B161" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B162" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B165" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B166" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B167" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B168" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B174" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B171" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B172" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B173" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B174" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B175" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B176" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>364</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="B179" t="s">
-        <v>1</v>
+        <v>362</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>554</v>
+        <v>365</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B182" t="s">
-        <v>556</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="B183" t="s">
-        <v>567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>565</v>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="B188" t="s">
-        <v>1</v>
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B191" t="s">
+      <c r="B198" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B192" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B195" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B198" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B200" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>623</v>
+      </c>
       <c r="B201" t="s">
-        <v>567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>295</v>
+        <v>552</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
-        <v>627</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>559</v>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="B207" t="s">
-        <v>1</v>
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
-        <v>563</v>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0041A19-4DA9-45E9-9B40-61873D744A14}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" t="s">
+        <v>647</v>
+      </c>
+      <c r="M2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" t="str">
+        <f>_xlfn.CONCAT($L$2,"/",LOWER(A3))</f>
+        <v>api/netprov/provision/createpstnsubscriber</v>
+      </c>
+      <c r="F3" t="str">
+        <f>_xlfn.CONCAT($M$2,"/",LOWER(A3))</f>
+        <v>api/netprov/generatecommand/createpstnsubscriber</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E6" si="0">_xlfn.CONCAT($L$2,"/",LOWER(A4))</f>
+        <v>api/netprov/provision/activatepstnsubscriber</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F6" si="1">_xlfn.CONCAT($M$2,"/",LOWER(A4))</f>
+        <v>api/netprov/generatecommand/activatepstnsubscriber</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>api/netprov/provision/createisdnsubscriber</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>api/netprov/generatecommand/createisdnsubscriber</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>api/netprov/provision/createmsnsubscriber</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>api/netprov/generatecommand/createmsnsubscriber</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7" si="2">_xlfn.CONCAT($L$2,"/",LOWER(A7))</f>
+        <v>api/netprov/provision/deletepstnsubscriber</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ref="F7" si="3">_xlfn.CONCAT($M$2,"/",LOWER(A7))</f>
+        <v>api/netprov/generatecommand/deletepstnsubscriber</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E17" si="4">_xlfn.CONCAT($L$2,"/",LOWER(A8))</f>
+        <v>api/netprov/provision/deleteisdnsubscriber</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ref="F8:F17" si="5">_xlfn.CONCAT($M$2,"/",LOWER(A8))</f>
+        <v>api/netprov/generatecommand/deleteisdnsubscriber</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="4"/>
+        <v>api/netprov/provision/deletemsnsubscriber</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="5"/>
+        <v>api/netprov/generatecommand/deletemsnsubscriber</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="4"/>
+        <v>api/netprov/provision/addclip</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="5"/>
+        <v>api/netprov/generatecommand/addclip</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" t="s">
+        <v>444</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="4"/>
+        <v>api/netprov/provision/deleteclip</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="5"/>
+        <v>api/netprov/generatecommand/deleteclip</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="4"/>
+        <v>api/netprov/provision/addclir</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="5"/>
+        <v>api/netprov/generatecommand/addclir</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B13" t="s">
+        <v>444</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="4"/>
+        <v>api/netprov/provision/deleteclir</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="5"/>
+        <v>api/netprov/generatecommand/deleteclir</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" t="s">
+        <v>444</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="4"/>
+        <v>api/netprov/provision/addcallwaiting</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="5"/>
+        <v>api/netprov/generatecommand/addcallwaiting</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" t="s">
+        <v>444</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="4"/>
+        <v>api/netprov/provision/deletecallwaiting</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="5"/>
+        <v>api/netprov/generatecommand/deletecallwaiting</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" t="s">
+        <v>444</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>api/netprov/provision/addcalldivert</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="5"/>
+        <v>api/netprov/generatecommand/addcalldivert</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" t="s">
+        <v>444</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="4"/>
+        <v>api/netprov/provision/deletecalldivert</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="5"/>
+        <v>api/netprov/generatecommand/deletecalldivert</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3614,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D1D1B-A97F-4AD0-B5C8-AD97FA10D80C}">
   <dimension ref="A1:N295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B76"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5411,7 +5898,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -5422,28 +5909,28 @@
         <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="H158" s="1" t="s">
+      <c r="I158" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I158" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="J158" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -5452,7 +5939,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B159" t="s">
         <v>54</v>
@@ -5475,7 +5962,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B160" t="s">
         <v>54</v>
@@ -5492,7 +5979,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B161" t="s">
         <v>54</v>
@@ -5509,7 +5996,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B162" t="s">
         <v>54</v>
@@ -5548,13 +6035,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B165" t="s">
         <v>54</v>
       </c>
       <c r="D165" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -5664,10 +6151,10 @@
         <v>54</v>
       </c>
       <c r="C175" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D175" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -5689,7 +6176,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B177" t="s">
         <v>54</v>
@@ -5697,7 +6184,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B178" t="s">
         <v>54</v>
@@ -5711,7 +6198,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B179" t="s">
         <v>132</v>
@@ -5719,7 +6206,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B180" t="s">
         <v>162</v>
@@ -5727,7 +6214,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B181" t="s">
         <v>233</v>
@@ -5735,7 +6222,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
@@ -5743,31 +6230,31 @@
         <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="H185" s="1" t="s">
+      <c r="I185" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I185" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="J185" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -5779,7 +6266,7 @@
         <v>114</v>
       </c>
       <c r="B186" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C186" t="s">
         <v>58</v>
@@ -5793,7 +6280,7 @@
         <v>115</v>
       </c>
       <c r="B187" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C187" t="s">
         <v>58</v>
@@ -5807,7 +6294,7 @@
         <v>116</v>
       </c>
       <c r="B188" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C188" t="s">
         <v>58</v>
@@ -5821,7 +6308,7 @@
         <v>117</v>
       </c>
       <c r="B189" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C189" t="s">
         <v>58</v>
@@ -5835,7 +6322,7 @@
         <v>118</v>
       </c>
       <c r="B190" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C190" t="s">
         <v>58</v>
@@ -5849,7 +6336,7 @@
         <v>119</v>
       </c>
       <c r="B191" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C191" t="s">
         <v>58</v>
@@ -5863,7 +6350,7 @@
         <v>120</v>
       </c>
       <c r="B192" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C192" t="s">
         <v>58</v>
@@ -5877,7 +6364,7 @@
         <v>121</v>
       </c>
       <c r="B193" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C193" t="s">
         <v>59</v>
@@ -5891,7 +6378,7 @@
         <v>122</v>
       </c>
       <c r="B194" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C194" t="s">
         <v>58</v>
@@ -5905,7 +6392,7 @@
         <v>123</v>
       </c>
       <c r="B195" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C195" t="s">
         <v>58</v>
@@ -5919,7 +6406,7 @@
         <v>124</v>
       </c>
       <c r="B196" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C196" t="s">
         <v>58</v>
@@ -5933,7 +6420,7 @@
         <v>125</v>
       </c>
       <c r="B197" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C197" t="s">
         <v>58</v>
@@ -5947,7 +6434,7 @@
         <v>126</v>
       </c>
       <c r="B198" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C198" t="s">
         <v>58</v>
@@ -5961,7 +6448,7 @@
         <v>127</v>
       </c>
       <c r="B199" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C199" t="s">
         <v>60</v>
@@ -5975,7 +6462,7 @@
         <v>128</v>
       </c>
       <c r="B200" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C200" t="s">
         <v>60</v>
@@ -5989,7 +6476,7 @@
         <v>129</v>
       </c>
       <c r="B201" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C201" t="s">
         <v>60</v>
@@ -6003,7 +6490,7 @@
         <v>130</v>
       </c>
       <c r="B202" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C202" t="s">
         <v>60</v>
@@ -6017,7 +6504,7 @@
         <v>131</v>
       </c>
       <c r="B203" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C203" t="s">
         <v>60</v>
@@ -6031,7 +6518,7 @@
         <v>61</v>
       </c>
       <c r="B204" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C204" t="s">
         <v>58</v>
@@ -6045,7 +6532,7 @@
         <v>62</v>
       </c>
       <c r="B205" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C205" t="s">
         <v>58</v>
@@ -6059,7 +6546,7 @@
         <v>63</v>
       </c>
       <c r="B206" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C206" t="s">
         <v>59</v>
@@ -6073,7 +6560,7 @@
         <v>57</v>
       </c>
       <c r="B207" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C207" t="s">
         <v>60</v>
@@ -6087,7 +6574,7 @@
         <v>55</v>
       </c>
       <c r="B208" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C208" t="s">
         <v>58</v>
@@ -6101,7 +6588,7 @@
         <v>56</v>
       </c>
       <c r="B209" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C209" t="s">
         <v>59</v>
@@ -6115,7 +6602,7 @@
         <v>57</v>
       </c>
       <c r="B210" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C210" t="s">
         <v>60</v>
@@ -6129,7 +6616,7 @@
         <v>22</v>
       </c>
       <c r="B211" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" t="s">
@@ -6146,7 +6633,7 @@
         <v>23</v>
       </c>
       <c r="B212" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" t="s">
@@ -6163,7 +6650,7 @@
         <v>24</v>
       </c>
       <c r="B213" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" t="s">
@@ -6180,7 +6667,7 @@
         <v>133</v>
       </c>
       <c r="B214" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C214" t="s">
         <v>315</v>
@@ -6200,7 +6687,7 @@
         <v>134</v>
       </c>
       <c r="B215" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C215" t="s">
         <v>315</v>
@@ -6220,7 +6707,7 @@
         <v>135</v>
       </c>
       <c r="B216" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C216" t="s">
         <v>315</v>
@@ -6240,7 +6727,7 @@
         <v>136</v>
       </c>
       <c r="B217" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C217" t="s">
         <v>315</v>
@@ -6260,7 +6747,7 @@
         <v>137</v>
       </c>
       <c r="B218" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C218" t="s">
         <v>315</v>
@@ -6280,7 +6767,7 @@
         <v>138</v>
       </c>
       <c r="B219" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C219" t="s">
         <v>315</v>
@@ -6300,7 +6787,7 @@
         <v>139</v>
       </c>
       <c r="B220" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C220" t="s">
         <v>315</v>
@@ -6320,7 +6807,7 @@
         <v>147</v>
       </c>
       <c r="B221" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C221" t="s">
         <v>315</v>
@@ -6340,7 +6827,7 @@
         <v>148</v>
       </c>
       <c r="B222" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C222" t="s">
         <v>315</v>
@@ -6360,7 +6847,7 @@
         <v>149</v>
       </c>
       <c r="B223" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C223" t="s">
         <v>315</v>
@@ -6380,7 +6867,7 @@
         <v>150</v>
       </c>
       <c r="B224" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C224" t="s">
         <v>316</v>
@@ -6394,7 +6881,7 @@
         <v>150</v>
       </c>
       <c r="B225" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C225" t="s">
         <v>316</v>
@@ -6408,7 +6895,7 @@
         <v>167</v>
       </c>
       <c r="B226" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C226" t="s">
         <v>184</v>
@@ -6425,7 +6912,7 @@
         <v>168</v>
       </c>
       <c r="B227" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C227" t="s">
         <v>185</v>
@@ -6442,7 +6929,7 @@
         <v>169</v>
       </c>
       <c r="B228" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C228" t="s">
         <v>186</v>
@@ -6459,7 +6946,7 @@
         <v>170</v>
       </c>
       <c r="B229" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C229" t="s">
         <v>187</v>
@@ -6476,7 +6963,7 @@
         <v>171</v>
       </c>
       <c r="B230" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C230" t="s">
         <v>188</v>
@@ -6493,7 +6980,7 @@
         <v>172</v>
       </c>
       <c r="B231" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C231" t="s">
         <v>189</v>
@@ -6510,7 +6997,7 @@
         <v>173</v>
       </c>
       <c r="B232" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C232" t="s">
         <v>190</v>
@@ -6527,7 +7014,7 @@
         <v>174</v>
       </c>
       <c r="B233" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C233" t="s">
         <v>191</v>
@@ -6544,7 +7031,7 @@
         <v>175</v>
       </c>
       <c r="B234" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C234" t="s">
         <v>192</v>
@@ -6561,7 +7048,7 @@
         <v>176</v>
       </c>
       <c r="B235" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C235" t="s">
         <v>193</v>
@@ -6578,7 +7065,7 @@
         <v>177</v>
       </c>
       <c r="B236" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C236" t="s">
         <v>194</v>
@@ -6595,7 +7082,7 @@
         <v>178</v>
       </c>
       <c r="B237" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C237" t="s">
         <v>195</v>
@@ -6612,7 +7099,7 @@
         <v>179</v>
       </c>
       <c r="B238" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C238" t="s">
         <v>196</v>
@@ -6629,7 +7116,7 @@
         <v>180</v>
       </c>
       <c r="B239" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C239" t="s">
         <v>197</v>
@@ -6646,7 +7133,7 @@
         <v>181</v>
       </c>
       <c r="B240" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C240" t="s">
         <v>198</v>
@@ -6663,7 +7150,7 @@
         <v>182</v>
       </c>
       <c r="B241" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C241" t="s">
         <v>199</v>
@@ -6680,7 +7167,7 @@
         <v>183</v>
       </c>
       <c r="B242" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C242" t="s">
         <v>200</v>
@@ -6697,7 +7184,7 @@
         <v>234</v>
       </c>
       <c r="B243" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C243" t="s">
         <v>332</v>
@@ -6714,7 +7201,7 @@
         <v>321</v>
       </c>
       <c r="B244" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C244" t="s">
         <v>332</v>
@@ -6731,7 +7218,7 @@
         <v>322</v>
       </c>
       <c r="B245" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C245" t="s">
         <v>332</v>
@@ -6748,7 +7235,7 @@
         <v>235</v>
       </c>
       <c r="B246" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C246" t="s">
         <v>332</v>
@@ -6765,7 +7252,7 @@
         <v>323</v>
       </c>
       <c r="B247" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C247" t="s">
         <v>332</v>
@@ -6782,7 +7269,7 @@
         <v>324</v>
       </c>
       <c r="B248" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C248" t="s">
         <v>332</v>
@@ -6799,7 +7286,7 @@
         <v>325</v>
       </c>
       <c r="B249" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C249" t="s">
         <v>332</v>
@@ -6816,7 +7303,7 @@
         <v>326</v>
       </c>
       <c r="B250" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C250" t="s">
         <v>332</v>
@@ -6833,7 +7320,7 @@
         <v>327</v>
       </c>
       <c r="B251" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C251" t="s">
         <v>332</v>
@@ -6850,7 +7337,7 @@
         <v>236</v>
       </c>
       <c r="B252" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C252" t="s">
         <v>332</v>
@@ -6867,7 +7354,7 @@
         <v>328</v>
       </c>
       <c r="B253" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C253" t="s">
         <v>332</v>
@@ -6884,7 +7371,7 @@
         <v>329</v>
       </c>
       <c r="B254" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C254" t="s">
         <v>332</v>
@@ -6901,7 +7388,7 @@
         <v>330</v>
       </c>
       <c r="B255" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C255" t="s">
         <v>332</v>
@@ -6918,7 +7405,7 @@
         <v>331</v>
       </c>
       <c r="B256" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C256" t="s">
         <v>332</v>
@@ -6935,7 +7422,7 @@
         <v>237</v>
       </c>
       <c r="B257" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C257" t="s">
         <v>332</v>
@@ -6952,7 +7439,7 @@
         <v>238</v>
       </c>
       <c r="B258" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C258" t="s">
         <v>332</v>
@@ -7199,7 +7686,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7209,7 +7696,7 @@
         <v>2</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>10</v>
@@ -7217,15 +7704,15 @@
     </row>
     <row r="285" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -7233,27 +7720,27 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B290">
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -7261,13 +7748,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B291">
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -7275,13 +7762,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B292">
         <v>20</v>
       </c>
       <c r="C292" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D292">
         <v>3</v>
@@ -7289,13 +7776,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B293">
         <v>30</v>
       </c>
       <c r="C293" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D293">
         <v>4</v>
@@ -7303,13 +7790,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B294">
         <v>60</v>
       </c>
       <c r="C294" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D294">
         <v>5</v>
@@ -7317,13 +7804,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B295">
         <v>90</v>
       </c>
       <c r="C295" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D295">
         <v>6</v>
@@ -7336,6 +7823,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1CA9FF-7FCA-4E51-AA12-BC0E8778660B}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="E19:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C14" t="s">
+        <v>659</v>
+      </c>
+      <c r="D14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>660</v>
+      </c>
+      <c r="D15" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>661</v>
+      </c>
+      <c r="D16" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>664</v>
+      </c>
+      <c r="D17" t="s">
+        <v>663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AD6D97-F40F-4E50-94E9-DE8C3CEFE6EC}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -7449,11 +8037,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459025B9-00C6-403A-9854-EC2EF15E2198}">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -7473,7 +8061,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7483,18 +8071,18 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7502,7 +8090,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>299</v>
@@ -7511,10 +8099,10 @@
         <v>292</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7522,7 +8110,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -7539,7 +8127,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -7556,7 +8144,7 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -7573,7 +8161,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -7590,7 +8178,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -7607,7 +8195,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -7624,7 +8212,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -7641,7 +8229,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -7658,7 +8246,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -7678,23 +8266,23 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7705,10 +8293,10 @@
         <v>300</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D21" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7730,13 +8318,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D23" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -7747,10 +8335,10 @@
         <v>300</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D24" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7772,13 +8360,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D26" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7786,13 +8374,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>473</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" t="s">
         <v>479</v>
-      </c>
-      <c r="D27" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7800,13 +8388,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D28" t="s">
         <v>480</v>
-      </c>
-      <c r="D28" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7814,13 +8402,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D29" t="s">
         <v>481</v>
-      </c>
-      <c r="D29" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -7845,10 +8433,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D31" t="s">
         <v>486</v>
-      </c>
-      <c r="D31" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -7859,10 +8447,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D32" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -7873,10 +8461,10 @@
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D33" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -7887,10 +8475,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D34" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -7901,10 +8489,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D35" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -7915,10 +8503,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D36" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -7927,14 +8515,14 @@
     <row r="38" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>299</v>
@@ -8097,12 +8685,12 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B63" t="s">
         <v>109</v>
@@ -9893,20 +10481,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5AABEA-1065-4C29-9918-AD38D19378B7}">
-  <dimension ref="A3:P138"/>
+  <dimension ref="A3:P145"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A25" sqref="A25"/>
-      <selection pane="topRight" activeCell="C134" sqref="C134:C139"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.6640625" bestFit="1" customWidth="1"/>
@@ -9923,7 +10512,7 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -9934,25 +10523,25 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -9963,106 +10552,106 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -10073,22 +10662,22 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -10099,22 +10688,22 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -10125,22 +10714,22 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -10151,22 +10740,22 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -10177,22 +10766,22 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D13" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -10203,22 +10792,22 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -10229,22 +10818,22 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D15" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E15" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F15" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G15" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H15" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -10255,25 +10844,25 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E16" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F16" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G16" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H16" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -10281,25 +10870,25 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D17" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E17" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G17" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>287</v>
       </c>
@@ -10307,25 +10896,25 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D18" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H18" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>288</v>
       </c>
@@ -10333,238 +10922,269 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D19" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E19" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G19" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H19" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D20" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H21" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B22" t="s">
         <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D22" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E22" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F22" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G22" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H22" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B23" t="s">
         <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D23" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E23" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F23" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G23" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H23" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B24" t="s">
         <v>233</v>
       </c>
       <c r="C24" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D24" t="s">
+        <v>501</v>
+      </c>
+      <c r="E24" t="s">
+        <v>501</v>
+      </c>
+      <c r="F24" t="s">
+        <v>501</v>
+      </c>
+      <c r="G24" t="s">
+        <v>501</v>
+      </c>
+      <c r="H24" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>667</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>667</v>
+      </c>
+      <c r="D25" t="s">
+        <v>501</v>
+      </c>
+      <c r="E25" t="s">
+        <v>500</v>
+      </c>
+      <c r="F25" t="s">
+        <v>500</v>
+      </c>
+      <c r="G25" t="s">
+        <v>501</v>
+      </c>
+      <c r="H25" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>668</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>668</v>
+      </c>
+      <c r="D26" t="s">
+        <v>500</v>
+      </c>
+      <c r="G26" t="s">
+        <v>501</v>
+      </c>
+      <c r="H26" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
         <v>504</v>
-      </c>
-      <c r="E24" t="s">
-        <v>504</v>
-      </c>
-      <c r="F24" t="s">
-        <v>504</v>
-      </c>
-      <c r="G24" t="s">
-        <v>504</v>
-      </c>
-      <c r="H24" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" t="s">
-        <v>507</v>
-      </c>
-      <c r="C29" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" t="s">
-        <v>503</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" t="s">
-        <v>507</v>
       </c>
       <c r="C30" t="s">
         <v>293</v>
       </c>
       <c r="E30" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
         <v>296</v>
       </c>
-      <c r="H30">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C31" t="s">
         <v>293</v>
       </c>
       <c r="E31" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -10572,136 +11192,139 @@
       <c r="G31" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C32" t="s">
         <v>293</v>
       </c>
       <c r="E32" t="s">
-        <v>503</v>
+        <v>500</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>297</v>
-      </c>
-      <c r="H32">
-        <v>50</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C33" t="s">
         <v>293</v>
       </c>
       <c r="E33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G33" t="s">
         <v>297</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C34" t="s">
         <v>293</v>
       </c>
       <c r="E34" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G34" t="s">
         <v>297</v>
       </c>
       <c r="H34">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C35" t="s">
         <v>293</v>
       </c>
       <c r="E35" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G35" t="s">
         <v>297</v>
       </c>
       <c r="H35">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C36" t="s">
         <v>293</v>
       </c>
       <c r="E36" t="s">
-        <v>503</v>
+        <v>500</v>
+      </c>
+      <c r="G36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H36">
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C37" t="s">
         <v>293</v>
       </c>
       <c r="E37" t="s">
-        <v>503</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>298</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C38" t="s">
         <v>293</v>
       </c>
       <c r="E38" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" t="s">
         <v>298</v>
@@ -10709,19 +11332,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C39" t="s">
         <v>293</v>
       </c>
       <c r="E39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
         <v>298</v>
@@ -10729,19 +11352,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C40" t="s">
         <v>293</v>
       </c>
       <c r="E40" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
         <v>298</v>
@@ -10749,19 +11372,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C41" t="s">
         <v>293</v>
       </c>
       <c r="E41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" t="s">
         <v>298</v>
@@ -10769,482 +11392,485 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E42" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F42">
-        <v>50</v>
-      </c>
-      <c r="H42">
-        <v>300</v>
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C43" t="s">
         <v>294</v>
       </c>
       <c r="E43" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F43">
         <v>50</v>
       </c>
       <c r="H43">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C44" t="s">
         <v>294</v>
       </c>
       <c r="E44" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F44">
         <v>50</v>
       </c>
       <c r="H44">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C45" t="s">
         <v>294</v>
       </c>
       <c r="E45" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F45">
         <v>50</v>
       </c>
       <c r="H45">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C46" t="s">
         <v>294</v>
       </c>
       <c r="E46" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F46">
         <v>50</v>
       </c>
       <c r="H46">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E47" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F47">
-        <v>4</v>
-      </c>
-      <c r="G47" t="s">
-        <v>296</v>
+        <v>50</v>
+      </c>
+      <c r="H47">
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C48" t="s">
         <v>293</v>
       </c>
       <c r="E48" t="s">
-        <v>503</v>
+        <v>500</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C49" t="s">
         <v>293</v>
       </c>
       <c r="E49" t="s">
-        <v>503</v>
+        <v>500</v>
+      </c>
+      <c r="G49" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E50" t="s">
-        <v>503</v>
-      </c>
-      <c r="F50">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E51" t="s">
-        <v>503</v>
+        <v>500</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C52" t="s">
         <v>293</v>
       </c>
       <c r="E52" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E53" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>517</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+        <v>506</v>
+      </c>
+      <c r="C54" t="s">
+        <v>294</v>
+      </c>
       <c r="E54" t="s">
-        <v>503</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="1"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>511</v>
-      </c>
-      <c r="D57" t="s">
-        <v>311</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" t="s">
-        <v>504</v>
-      </c>
-      <c r="I57">
-        <v>100</v>
-      </c>
-      <c r="J57">
-        <v>2000</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D58" t="s">
         <v>311</v>
       </c>
       <c r="E58" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I58">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="J58">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B59" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D59" t="s">
         <v>311</v>
       </c>
       <c r="E59" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I59">
-        <v>5100</v>
+        <v>2100</v>
       </c>
       <c r="J59">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D60" t="s">
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I60">
-        <v>11000</v>
+        <v>5100</v>
       </c>
       <c r="J60">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D61" t="s">
         <v>311</v>
       </c>
       <c r="E61" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I61">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="J61">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D62" t="s">
         <v>311</v>
       </c>
       <c r="E62" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I62">
-        <v>41000</v>
+        <v>21000</v>
       </c>
       <c r="J62">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D63" t="s">
         <v>311</v>
       </c>
       <c r="E63" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I63">
-        <v>61000</v>
+        <v>41000</v>
+      </c>
+      <c r="J63">
+        <v>60000</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E64" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I64">
-        <v>50</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B65" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D65" t="s">
         <v>312</v>
       </c>
       <c r="E65" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I65">
-        <v>10</v>
-      </c>
-      <c r="J65">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E66" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I66">
         <v>10</v>
       </c>
+      <c r="J66">
+        <v>50</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D67" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E67" t="s">
-        <v>503</v>
-      </c>
-      <c r="J67">
+        <v>501</v>
+      </c>
+      <c r="I67">
         <v>10</v>
       </c>
     </row>
@@ -11253,13 +11879,13 @@
         <v>150</v>
       </c>
       <c r="B68" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E68" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J68">
         <v>10</v>
@@ -11267,265 +11893,262 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s">
-        <v>513</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
+        <v>508</v>
+      </c>
+      <c r="D69" t="s">
+        <v>313</v>
+      </c>
+      <c r="E69" t="s">
+        <v>500</v>
       </c>
       <c r="J69">
-        <v>155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
         <v>155</v>
-      </c>
-      <c r="J70">
-        <v>622</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I71">
+        <v>155</v>
+      </c>
+      <c r="J71">
         <v>622</v>
-      </c>
-      <c r="J71">
-        <v>2488</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I72">
+        <v>622</v>
+      </c>
+      <c r="J72">
         <v>2488</v>
-      </c>
-      <c r="J72">
-        <v>10000</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2488</v>
       </c>
       <c r="J73">
-        <v>50</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
         <v>50</v>
-      </c>
-      <c r="J74">
-        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I75">
+        <v>50</v>
+      </c>
+      <c r="J75">
         <v>100</v>
-      </c>
-      <c r="J75">
-        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76">
         <v>200</v>
-      </c>
-      <c r="J76">
-        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I77">
+        <v>200</v>
+      </c>
+      <c r="J77">
         <v>300</v>
-      </c>
-      <c r="J77">
-        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I78">
+        <v>300</v>
+      </c>
+      <c r="J78">
         <v>400</v>
-      </c>
-      <c r="J78">
-        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B79" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I79">
+        <v>400</v>
+      </c>
+      <c r="J79">
         <v>500</v>
-      </c>
-      <c r="J79">
-        <v>600</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B80" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I80">
+        <v>500</v>
+      </c>
+      <c r="J80">
         <v>600</v>
-      </c>
-      <c r="J80">
-        <v>700</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I81">
+        <v>600</v>
+      </c>
+      <c r="J81">
         <v>700</v>
-      </c>
-      <c r="J81">
-        <v>800</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I82">
+        <v>700</v>
+      </c>
+      <c r="J82">
         <v>800</v>
-      </c>
-      <c r="J82">
-        <v>900</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I83">
+        <v>800</v>
+      </c>
+      <c r="J83">
         <v>900</v>
-      </c>
-      <c r="J83">
-        <v>1000</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I84">
+        <v>900</v>
+      </c>
+      <c r="J84">
         <v>1000</v>
-      </c>
-      <c r="J84">
-        <v>10000</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I85">
+        <v>1000</v>
+      </c>
+      <c r="J85">
         <v>10000</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>514</v>
-      </c>
-      <c r="C86" t="s">
-        <v>293</v>
-      </c>
-      <c r="E86" t="s">
-        <v>317</v>
+        <v>510</v>
       </c>
       <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86">
-        <v>50</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c r="B87" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C87" t="s">
         <v>293</v>
@@ -11534,18 +12157,18 @@
         <v>317</v>
       </c>
       <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
         <v>50</v>
-      </c>
-      <c r="J87">
-        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C88" t="s">
         <v>293</v>
@@ -11554,38 +12177,38 @@
         <v>317</v>
       </c>
       <c r="I88">
+        <v>50</v>
+      </c>
+      <c r="J88">
         <v>100</v>
-      </c>
-      <c r="J88">
-        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E89" t="s">
         <v>317</v>
       </c>
       <c r="I89">
+        <v>100</v>
+      </c>
+      <c r="J89">
         <v>155</v>
-      </c>
-      <c r="J89">
-        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C90" t="s">
         <v>294</v>
@@ -11594,18 +12217,18 @@
         <v>317</v>
       </c>
       <c r="I90">
+        <v>155</v>
+      </c>
+      <c r="J90">
         <v>200</v>
-      </c>
-      <c r="J90">
-        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C91" t="s">
         <v>294</v>
@@ -11614,18 +12237,18 @@
         <v>317</v>
       </c>
       <c r="I91">
+        <v>200</v>
+      </c>
+      <c r="J91">
         <v>300</v>
-      </c>
-      <c r="J91">
-        <v>400</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C92" t="s">
         <v>294</v>
@@ -11634,18 +12257,18 @@
         <v>317</v>
       </c>
       <c r="I92">
+        <v>300</v>
+      </c>
+      <c r="J92">
         <v>400</v>
-      </c>
-      <c r="J92">
-        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C93" t="s">
         <v>294</v>
@@ -11654,18 +12277,18 @@
         <v>317</v>
       </c>
       <c r="I93">
+        <v>400</v>
+      </c>
+      <c r="J93">
         <v>500</v>
-      </c>
-      <c r="J93">
-        <v>600</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C94" t="s">
         <v>294</v>
@@ -11674,18 +12297,18 @@
         <v>317</v>
       </c>
       <c r="I94">
+        <v>500</v>
+      </c>
+      <c r="J94">
         <v>600</v>
-      </c>
-      <c r="J94">
-        <v>622</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C95" t="s">
         <v>294</v>
@@ -11694,18 +12317,18 @@
         <v>317</v>
       </c>
       <c r="I95">
+        <v>600</v>
+      </c>
+      <c r="J95">
         <v>622</v>
-      </c>
-      <c r="J95">
-        <v>700</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="B96" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C96" t="s">
         <v>294</v>
@@ -11714,18 +12337,18 @@
         <v>317</v>
       </c>
       <c r="I96">
+        <v>622</v>
+      </c>
+      <c r="J96">
         <v>700</v>
       </c>
-      <c r="J96">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C97" t="s">
         <v>294</v>
@@ -11734,18 +12357,18 @@
         <v>317</v>
       </c>
       <c r="I97">
+        <v>700</v>
+      </c>
+      <c r="J97">
         <v>800</v>
       </c>
-      <c r="J97">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B98" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C98" t="s">
         <v>294</v>
@@ -11754,18 +12377,18 @@
         <v>317</v>
       </c>
       <c r="I98">
+        <v>800</v>
+      </c>
+      <c r="J98">
         <v>900</v>
       </c>
-      <c r="J98">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C99" t="s">
         <v>294</v>
@@ -11774,18 +12397,18 @@
         <v>317</v>
       </c>
       <c r="I99">
+        <v>900</v>
+      </c>
+      <c r="J99">
         <v>1000</v>
       </c>
-      <c r="J99">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C100" t="s">
         <v>294</v>
@@ -11794,18 +12417,18 @@
         <v>317</v>
       </c>
       <c r="I100">
+        <v>1000</v>
+      </c>
+      <c r="J100">
         <v>2488</v>
       </c>
-      <c r="J100">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B101" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C101" t="s">
         <v>294</v>
@@ -11814,381 +12437,478 @@
         <v>317</v>
       </c>
       <c r="I101">
+        <v>2488</v>
+      </c>
+      <c r="J101">
         <v>10000</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="7"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B105" s="1" t="s">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>238</v>
+      </c>
+      <c r="B102" t="s">
+        <v>511</v>
+      </c>
+      <c r="C102" t="s">
+        <v>294</v>
+      </c>
+      <c r="E102" t="s">
+        <v>317</v>
+      </c>
+      <c r="I102">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>654</v>
+      </c>
+      <c r="B103" t="s">
+        <v>667</v>
+      </c>
+      <c r="H103">
+        <v>50</v>
+      </c>
+      <c r="L103">
+        <v>100</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>655</v>
+      </c>
+      <c r="B104" t="s">
+        <v>667</v>
+      </c>
+      <c r="H104">
+        <v>100</v>
+      </c>
+      <c r="L104">
+        <v>200</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>672</v>
+      </c>
+      <c r="B105" t="s">
+        <v>668</v>
+      </c>
+      <c r="H105">
+        <v>10</v>
+      </c>
+      <c r="L105">
+        <v>30</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>671</v>
+      </c>
+      <c r="B106" t="s">
+        <v>668</v>
+      </c>
+      <c r="H106">
+        <v>20</v>
+      </c>
+      <c r="L106">
+        <v>60</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106" t="s">
-        <v>300</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D106" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>25</v>
-      </c>
-      <c r="B107" t="s">
-        <v>301</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D107" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" t="s">
-        <v>469</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D108" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>26</v>
-      </c>
-      <c r="B109" t="s">
-        <v>300</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D109" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>26</v>
-      </c>
-      <c r="B110" t="s">
-        <v>301</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D110" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>26</v>
-      </c>
-      <c r="B111" t="s">
-        <v>469</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D111" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112" t="s">
-        <v>476</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D112" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>478</v>
+        <v>300</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D113" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B114" t="s">
-        <v>477</v>
+        <v>301</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>481</v>
+        <v>429</v>
       </c>
       <c r="D114" t="s">
-        <v>484</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>466</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="D115" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D116" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>301</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>644</v>
+        <v>429</v>
       </c>
       <c r="D117" t="s">
-        <v>491</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>466</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="D118" t="s">
-        <v>645</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>473</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="D119" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>475</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="D120" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" t="s">
+        <v>474</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D121" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D122" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D123" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D124" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D125" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D126" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D127" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>32</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B128" t="s">
         <v>32</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D121" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
-        <v>537</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-      <c r="C127" t="s">
-        <v>542</v>
-      </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>2</v>
-      </c>
-      <c r="B128">
-        <v>2</v>
-      </c>
-      <c r="C128" t="s">
-        <v>544</v>
-      </c>
-      <c r="D128">
-        <v>3</v>
+      <c r="C128" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D128" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>3</v>
-      </c>
-      <c r="B129">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>545</v>
-      </c>
-      <c r="D129">
-        <v>4</v>
-      </c>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B132" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>646</v>
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>534</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1</v>
-      </c>
-      <c r="B134" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>539</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="B135" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>541</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>542</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>1</v>
       </c>
-      <c r="B136" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="B141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>1</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B142" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>1</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B145" t="s">
         <v>301</v>
       </c>
     </row>
@@ -12197,12 +12917,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3C228F-834E-438B-B848-AC8E533EF2AF}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:H40"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12229,7 +12949,7 @@
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
@@ -12288,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L8" t="s">
         <v>1</v>
@@ -12313,7 +13033,7 @@
         <v>411</v>
       </c>
       <c r="L10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -12610,7 +13330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F73618-6586-4A84-9871-6FE50C66AABE}">
   <dimension ref="A3:B12"/>
   <sheetViews>
@@ -12705,12 +13425,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE33CD2A-AAD0-41EF-9549-2687CBDEA9E8}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12720,7 +13440,7 @@
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -12733,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -12762,7 +13482,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -12776,7 +13496,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -12789,10 +13509,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G9" t="s">
         <v>436</v>
@@ -12800,7 +13520,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F10" t="s">
         <v>417</v>
@@ -12824,410 +13544,24 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>417</v>
       </c>
       <c r="G17" t="s">
-        <v>438</v>
-      </c>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0041A19-4DA9-45E9-9B40-61873D744A14}">
-  <dimension ref="A1:M17"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="L2" t="s">
-        <v>440</v>
-      </c>
-      <c r="M2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E3" t="str">
-        <f>_xlfn.CONCAT($L$2,"/",LOWER(A3))</f>
-        <v>api/networkprovisioning/provision/createpstnsubscriber</v>
-      </c>
-      <c r="F3" t="str">
-        <f>_xlfn.CONCAT($M$2,"/",LOWER(A3))</f>
-        <v>api/networkprovisioning/generatecommand/createpstnsubscriber</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B4" t="s">
-        <v>447</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" ref="E4:E6" si="0">_xlfn.CONCAT($L$2,"/",LOWER(A4))</f>
-        <v>api/networkprovisioning/provision/activatepstnsubscriber</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" ref="F4:F6" si="1">_xlfn.CONCAT($M$2,"/",LOWER(A4))</f>
-        <v>api/networkprovisioning/generatecommand/activatepstnsubscriber</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B5" t="s">
-        <v>446</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>api/networkprovisioning/provision/createisdnsubscriber</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>api/networkprovisioning/generatecommand/createisdnsubscriber</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>api/networkprovisioning/provision/createmsnsubscriber</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>api/networkprovisioning/generatecommand/createmsnsubscriber</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>422</v>
-      </c>
-      <c r="B7" t="s">
-        <v>447</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7" si="2">_xlfn.CONCAT($L$2,"/",LOWER(A7))</f>
-        <v>api/networkprovisioning/provision/deletepstnsubscriber</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" ref="F7" si="3">_xlfn.CONCAT($M$2,"/",LOWER(A7))</f>
-        <v>api/networkprovisioning/generatecommand/deletepstnsubscriber</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" ref="E8:E17" si="4">_xlfn.CONCAT($L$2,"/",LOWER(A8))</f>
-        <v>api/networkprovisioning/provision/deleteisdnsubscriber</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" ref="F8:F17" si="5">_xlfn.CONCAT($M$2,"/",LOWER(A8))</f>
-        <v>api/networkprovisioning/generatecommand/deleteisdnsubscriber</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>424</v>
-      </c>
-      <c r="B9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="4"/>
-        <v>api/networkprovisioning/provision/deletemsnsubscriber</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="5"/>
-        <v>api/networkprovisioning/generatecommand/deletemsnsubscriber</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B10" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="4"/>
-        <v>api/networkprovisioning/provision/addclip</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="5"/>
-        <v>api/networkprovisioning/generatecommand/addclip</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="4"/>
-        <v>api/networkprovisioning/provision/deleteclip</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="5"/>
-        <v>api/networkprovisioning/generatecommand/deleteclip</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>427</v>
-      </c>
-      <c r="B12" t="s">
-        <v>447</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="4"/>
-        <v>api/networkprovisioning/provision/addclir</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="5"/>
-        <v>api/networkprovisioning/generatecommand/addclir</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>428</v>
-      </c>
-      <c r="B13" t="s">
-        <v>447</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="4"/>
-        <v>api/networkprovisioning/provision/deleteclir</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="5"/>
-        <v>api/networkprovisioning/generatecommand/deleteclir</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>429</v>
-      </c>
-      <c r="B14" t="s">
-        <v>447</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="4"/>
-        <v>api/networkprovisioning/provision/addcallwaiting</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="5"/>
-        <v>api/networkprovisioning/generatecommand/addcallwaiting</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>430</v>
-      </c>
-      <c r="B15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="4"/>
-        <v>api/networkprovisioning/provision/deletecallwaiting</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="5"/>
-        <v>api/networkprovisioning/generatecommand/deletecallwaiting</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" t="s">
-        <v>447</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="4"/>
-        <v>api/networkprovisioning/provision/addcalldivert</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="5"/>
-        <v>api/networkprovisioning/generatecommand/addcalldivert</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>432</v>
-      </c>
-      <c r="B17" t="s">
-        <v>447</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="4"/>
-        <v>api/networkprovisioning/provision/deletecalldivert</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="5"/>
-        <v>api/networkprovisioning/generatecommand/deletecalldivert</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Retail/Documents/OSS-BSS/E2E Design.xlsx
+++ b/Retail/Documents/OSS-BSS/E2E Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\Retail\Documents\OSS-BSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29263F9F-76E1-4C7B-8575-F36ABCC48E8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18E2A5-48BC-4026-8655-484702818A74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4F0E0A7E-CDA5-4DA7-A5B8-94683093D0E1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="689">
   <si>
     <t>ContractType</t>
   </si>
@@ -1930,9 +1930,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>ChargeableRecurringTypeID</t>
-  </si>
-  <si>
     <t>MainResourceName</t>
   </si>
   <si>
@@ -2143,6 +2140,24 @@
   <si>
     <t>ChargeableRecurringTypeID
 (ChargeableConditionID)</t>
+  </si>
+  <si>
+    <t>ContractNetworkConfig</t>
+  </si>
+  <si>
+    <t>NetworkConfigType</t>
+  </si>
+  <si>
+    <t>NetworkConfigSettings</t>
+  </si>
+  <si>
+    <t>Phone Supplementary Service</t>
+  </si>
+  <si>
+    <t>Call Forward</t>
+  </si>
+  <si>
+    <t>AccountIdentity</t>
   </si>
 </sst>
 </file>
@@ -2539,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2483E329-B3B0-424F-826D-489DA42297BA}">
   <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:A181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2609,7 +2624,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2643,7 +2658,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2671,7 +2686,7 @@
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -2751,19 +2766,19 @@
         <v>607</v>
       </c>
       <c r="F31" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E32" t="s">
         <v>608</v>
       </c>
       <c r="F32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2772,7 +2787,7 @@
         <v>609</v>
       </c>
       <c r="F33" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2780,45 +2795,45 @@
         <v>610</v>
       </c>
       <c r="F34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="E35" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="E36" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F36" t="s">
         <v>629</v>
-      </c>
-      <c r="F36" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="E37" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="E39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2845,7 +2860,7 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C45" t="s">
         <v>353</v>
@@ -2854,7 +2869,7 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C46" t="s">
         <v>434</v>
@@ -2863,7 +2878,7 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2963,7 +2978,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -2976,7 +2991,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2986,7 +3001,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C72" t="s">
         <v>434</v>
@@ -3009,7 +3024,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -3022,7 +3037,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -3032,7 +3047,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3042,7 +3057,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3065,7 +3080,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3202,7 +3217,7 @@
     </row>
     <row r="115" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C115" t="s">
         <v>353</v>
@@ -3257,9 +3272,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
-        <v>614</v>
+    <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B125" s="3" t="s">
+        <v>682</v>
       </c>
       <c r="C125" t="s">
         <v>353</v>
@@ -3267,7 +3282,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B127" t="s">
         <v>1</v>
@@ -3589,7 +3604,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B192" t="s">
         <v>1</v>
@@ -3714,7 +3729,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B219" t="s">
         <v>1</v>
@@ -3752,7 +3767,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -3762,7 +3777,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B229" t="s">
         <v>1</v>
@@ -3830,10 +3845,10 @@
         <v>440</v>
       </c>
       <c r="L2" t="s">
+        <v>640</v>
+      </c>
+      <c r="M2" t="s">
         <v>641</v>
-      </c>
-      <c r="M2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
@@ -6110,13 +6125,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B165" t="s">
         <v>53</v>
       </c>
       <c r="D165" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -7914,39 +7929,39 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H1" t="s">
         <v>670</v>
-      </c>
-      <c r="H1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -7959,7 +7974,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -7972,42 +7987,42 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" t="s">
         <v>652</v>
       </c>
-      <c r="C14" t="s">
-        <v>653</v>
-      </c>
       <c r="D14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -10576,12 +10591,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5AABEA-1065-4C29-9918-AD38D19378B7}">
-  <dimension ref="A3:P145"/>
+  <dimension ref="A3:P172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A153" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A25" sqref="A25"/>
-      <selection pane="topRight" activeCell="C129" sqref="C121:C129"/>
+      <selection pane="topRight" activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10616,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>511</v>
@@ -11153,13 +11168,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D25" t="s">
         <v>499</v>
@@ -11179,13 +11194,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D26" t="s">
         <v>498</v>
@@ -11237,13 +11252,13 @@
         <v>513</v>
       </c>
       <c r="L29" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="N29" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -12555,10 +12570,10 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B103" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H103">
         <v>50</v>
@@ -12572,10 +12587,10 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B104" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H104">
         <v>100</v>
@@ -12589,10 +12604,10 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B105" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H105">
         <v>10</v>
@@ -12604,15 +12619,15 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B106" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H106">
         <v>20</v>
@@ -12624,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -12810,7 +12825,7 @@
         <v>28</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D124" t="s">
         <v>486</v>
@@ -12827,7 +12842,7 @@
         <v>482</v>
       </c>
       <c r="D125" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -12953,7 +12968,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B139" s="1"/>
     </row>
@@ -12962,7 +12977,7 @@
         <v>10</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -12986,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -12997,7 +13012,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -13005,8 +13020,288 @@
         <v>300</v>
       </c>
     </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>299</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D150" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D151" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>464</v>
+      </c>
+      <c r="B152" t="s">
+        <v>464</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D152" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>471</v>
+      </c>
+      <c r="B153" t="s">
+        <v>471</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D153" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>473</v>
+      </c>
+      <c r="B154" t="s">
+        <v>473</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D154" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>472</v>
+      </c>
+      <c r="B155" t="s">
+        <v>472</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D155" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>26</v>
+      </c>
+      <c r="B156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D156" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D157" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D158" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>29</v>
+      </c>
+      <c r="B159" t="s">
+        <v>29</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D159" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D160" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>32</v>
+      </c>
+      <c r="B161" t="s">
+        <v>32</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D161" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>31</v>
+      </c>
+      <c r="B162" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D162" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>3279843</v>
+      </c>
+      <c r="C167" t="s">
+        <v>686</v>
+      </c>
+      <c r="D167" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>3279843</v>
+      </c>
+      <c r="C168" t="s">
+        <v>686</v>
+      </c>
+      <c r="D168" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>3279843</v>
+      </c>
+      <c r="C169" t="s">
+        <v>686</v>
+      </c>
+      <c r="D169" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13407,7 +13702,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B59" t="s">
         <v>397</v>
@@ -13547,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -13576,7 +13871,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -13590,7 +13885,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -13603,7 +13898,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F9" t="s">
         <v>446</v>
@@ -13614,7 +13909,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F10" t="s">
         <v>415</v>
@@ -13641,7 +13936,7 @@
         <v>446</v>
       </c>
       <c r="G16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
@@ -13649,7 +13944,7 @@
         <v>415</v>
       </c>
       <c r="G17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.3">

--- a/Retail/Documents/OSS-BSS/E2E Design.xlsx
+++ b/Retail/Documents/OSS-BSS/E2E Design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\Retail\Documents\OSS-BSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18E2A5-48BC-4026-8655-484702818A74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B369D78-ABE4-4E58-8BB5-D5F590A7297C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4F0E0A7E-CDA5-4DA7-A5B8-94683093D0E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{4F0E0A7E-CDA5-4DA7-A5B8-94683093D0E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="697">
   <si>
     <t>ContractType</t>
   </si>
@@ -2158,6 +2158,31 @@
   </si>
   <si>
     <t>AccountIdentity</t>
+  </si>
+  <si>
+    <t>DiscountRule</t>
+  </si>
+  <si>
+    <t>TargetType</t>
+  </si>
+  <si>
+    <t>ContractServiceRecurringCharge</t>
+  </si>
+  <si>
+    <t>ComponentType</t>
+  </si>
+  <si>
+    <t>RecordType</t>
+  </si>
+  <si>
+    <t>Discount Percentage (text box)</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>DiscountRuleRecordFilterCondition (based on the record type
+ defined in the component type) custom object</t>
   </si>
 </sst>
 </file>
@@ -2554,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2483E329-B3B0-424F-826D-489DA42297BA}">
   <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4189,10 +4214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D1D1B-A97F-4AD0-B5C8-AD97FA10D80C}">
-  <dimension ref="A1:N295"/>
+  <dimension ref="A1:N313"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A279" sqref="A279"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4200,7 +4225,7 @@
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.21875" customWidth="1"/>
     <col min="3" max="3" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.21875" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" customWidth="1"/>
     <col min="5" max="5" width="41.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.44140625" bestFit="1" customWidth="1"/>
@@ -7698,7 +7723,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -7713,7 +7738,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -7722,187 +7747,277 @@
         <v>VPN</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>691</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D280" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B284" s="1"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>691</v>
+      </c>
+      <c r="B286" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>624</v>
+      </c>
+      <c r="B287" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>695</v>
+      </c>
+      <c r="B289" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B295" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C295" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>277</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B296" t="s">
         <v>278</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C296" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>279</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B297" t="s">
         <v>278</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C297" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>284</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B298" t="s">
         <v>283</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C298" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B302" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C302" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    <row r="303" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>522</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C303" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
-      <c r="D288" s="1"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B307" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C307" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>529</v>
       </c>
-      <c r="B290">
+      <c r="B308">
         <v>10</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C308" t="s">
         <v>530</v>
       </c>
-      <c r="D290">
+      <c r="D308">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>529</v>
       </c>
-      <c r="B291">
+      <c r="B309">
         <v>10</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C309" t="s">
         <v>531</v>
       </c>
-      <c r="D291">
+      <c r="D309">
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>529</v>
       </c>
-      <c r="B292">
+      <c r="B310">
         <v>20</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C310" t="s">
         <v>532</v>
       </c>
-      <c r="D292">
+      <c r="D310">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>529</v>
       </c>
-      <c r="B293">
+      <c r="B311">
         <v>30</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C311" t="s">
         <v>533</v>
       </c>
-      <c r="D293">
+      <c r="D311">
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>529</v>
       </c>
-      <c r="B294">
+      <c r="B312">
         <v>60</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C312" t="s">
         <v>534</v>
       </c>
-      <c r="D294">
+      <c r="D312">
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>529</v>
       </c>
-      <c r="B295">
+      <c r="B313">
         <v>90</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C313" t="s">
         <v>535</v>
       </c>
-      <c r="D295">
+      <c r="D313">
         <v>6</v>
       </c>
     </row>

--- a/Retail/Documents/OSS-BSS/E2E Design.xlsx
+++ b/Retail/Documents/OSS-BSS/E2E Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\Retail\Documents\OSS-BSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B369D78-ABE4-4E58-8BB5-D5F590A7297C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A37043A-5E88-4586-A9AE-AB6A159DD22F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{4F0E0A7E-CDA5-4DA7-A5B8-94683093D0E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="1" activeTab="6" xr2:uid="{4F0E0A7E-CDA5-4DA7-A5B8-94683093D0E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="703">
   <si>
     <t>ContractType</t>
   </si>
@@ -2183,6 +2183,24 @@
   <si>
     <t>DiscountRuleRecordFilterCondition (based on the record type
  defined in the component type) custom object</t>
+  </si>
+  <si>
+    <t>PathRelatedPath</t>
+  </si>
+  <si>
+    <t>RelatedPathID</t>
+  </si>
+  <si>
+    <t>SupportedNodeTypes</t>
+  </si>
+  <si>
+    <t>SupportedNodePartTypes</t>
+  </si>
+  <si>
+    <t>SupportedParentNodePartTypes</t>
+  </si>
+  <si>
+    <t>IsRootPart</t>
   </si>
 </sst>
 </file>
@@ -4216,7 +4234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D1D1B-A97F-4AD0-B5C8-AD97FA10D80C}">
   <dimension ref="A1:N313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+    <sheetView topLeftCell="A274" workbookViewId="0">
       <selection activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
@@ -13422,10 +13440,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3C228F-834E-438B-B848-AC8E533EF2AF}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13544,6 +13562,14 @@
         <v>403</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>372</v>
@@ -13551,11 +13577,8 @@
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="H15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -13563,7 +13586,7 @@
         <v>383</v>
       </c>
       <c r="H16" t="s">
-        <v>2</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -13571,13 +13594,16 @@
         <v>368</v>
       </c>
       <c r="H17" t="s">
-        <v>381</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>373</v>
       </c>
+      <c r="H18" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -13586,6 +13612,9 @@
       <c r="C19" t="s">
         <v>353</v>
       </c>
+      <c r="H19" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -13614,13 +13643,16 @@
         <v>368</v>
       </c>
       <c r="H23" t="s">
-        <v>381</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>373</v>
       </c>
+      <c r="H24" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -13628,6 +13660,9 @@
       </c>
       <c r="C25" t="s">
         <v>353</v>
+      </c>
+      <c r="H25" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -13826,6 +13861,19 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B62" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
